--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103731.7769263901</v>
+        <v>101765.8995001853</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2206069.635128965</v>
+        <v>2206069.635128966</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>37.42681674263682</v>
+        <v>30.55077100092537</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>68.70013939739736</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>95.17047646297144</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.77789527923463</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>366.926072409012</v>
+        <v>366.9260724090136</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.04694697511923</v>
       </c>
       <c r="G5" t="n">
-        <v>366.926072409012</v>
+        <v>366.9260724090136</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.6538589004793</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.1044908246057</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3092602866687</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>328.5554696244753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.1001200512375</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.8847405498089</v>
       </c>
       <c r="I6" t="n">
-        <v>81.01651298742905</v>
+        <v>81.01651298742897</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.90416975411972</v>
+        <v>85.04586258645364</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>167.1621765020568</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1836675285792</v>
+        <v>187.9152349371863</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9253691130818</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>130.6537846849579</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>48.52693611746325</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.93242357221159</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.7204054836099</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>153.6099101250728</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,25 +1370,25 @@
         <v>372.3364085329072</v>
       </c>
       <c r="C11" t="n">
-        <v>354.8754586404341</v>
+        <v>354.8754586404342</v>
       </c>
       <c r="D11" t="n">
         <v>344.2856084901096</v>
       </c>
       <c r="E11" t="n">
-        <v>371.5329369416892</v>
+        <v>371.5329369416884</v>
       </c>
       <c r="F11" t="n">
-        <v>396.478612611138</v>
+        <v>396.4786126111381</v>
       </c>
       <c r="G11" t="n">
         <v>401.6908603532261</v>
       </c>
       <c r="H11" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492784</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15360292176764</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T11" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U11" t="n">
-        <v>240.6910642547562</v>
+        <v>240.6910642547563</v>
       </c>
       <c r="V11" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395616</v>
       </c>
       <c r="W11" t="n">
-        <v>338.8435355868396</v>
+        <v>338.8435355868397</v>
       </c>
       <c r="X11" t="n">
-        <v>359.3336675478956</v>
+        <v>359.3336675478957</v>
       </c>
       <c r="Y11" t="n">
         <v>375.8405055254802</v>
@@ -1467,7 +1467,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I12" t="n">
-        <v>30.18149436614537</v>
+        <v>30.18149436614535</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.4345470513639</v>
+        <v>115.9537000056131</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>156.8493879680545</v>
       </c>
       <c r="D13" t="n">
-        <v>138.2180398876389</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F13" t="n">
-        <v>135.0236148923578</v>
+        <v>135.0236148923579</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0100359697638</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>241.7402101932546</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2582435746654</v>
+        <v>276.1255652060177</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.3122222584638</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>372.3364085329072</v>
       </c>
       <c r="C14" t="n">
-        <v>354.8754586404341</v>
+        <v>354.8754586404342</v>
       </c>
       <c r="D14" t="n">
         <v>344.2856084901096</v>
@@ -1616,16 +1616,16 @@
         <v>371.5329369416884</v>
       </c>
       <c r="F14" t="n">
-        <v>396.478612611138</v>
+        <v>396.4786126111381</v>
       </c>
       <c r="G14" t="n">
         <v>401.6908603532261</v>
       </c>
       <c r="H14" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492784</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176769</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T14" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U14" t="n">
-        <v>240.6910642547562</v>
+        <v>240.6910642547563</v>
       </c>
       <c r="V14" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395616</v>
       </c>
       <c r="W14" t="n">
-        <v>338.8435355868396</v>
+        <v>338.8435355868397</v>
       </c>
       <c r="X14" t="n">
-        <v>359.3336675478956</v>
+        <v>359.3336675478957</v>
       </c>
       <c r="Y14" t="n">
         <v>375.8405055254802</v>
@@ -1704,7 +1704,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I15" t="n">
-        <v>30.18149436614537</v>
+        <v>30.18149436614535</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.5414213796509</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.0100359697638</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U16" t="n">
-        <v>192.8877051136791</v>
+        <v>275.8429477387574</v>
       </c>
       <c r="V16" t="n">
         <v>241.7402101932546</v>
       </c>
       <c r="W16" t="n">
-        <v>276.1255652060176</v>
+        <v>276.1255652060177</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>372.3364085329072</v>
+        <v>372.3364085329073</v>
       </c>
       <c r="C17" t="n">
-        <v>354.8754586404341</v>
+        <v>354.8754586404343</v>
       </c>
       <c r="D17" t="n">
-        <v>344.2856084901096</v>
+        <v>344.2856084901097</v>
       </c>
       <c r="E17" t="n">
-        <v>371.5329369416884</v>
+        <v>371.5329369416885</v>
       </c>
       <c r="F17" t="n">
-        <v>396.478612611138</v>
+        <v>396.4786126111381</v>
       </c>
       <c r="G17" t="n">
-        <v>401.6908603532261</v>
+        <v>401.6908603532262</v>
       </c>
       <c r="H17" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492784</v>
       </c>
       <c r="I17" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176781</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916126</v>
       </c>
       <c r="T17" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863866</v>
       </c>
       <c r="U17" t="n">
-        <v>240.6910642547562</v>
+        <v>240.6910642547564</v>
       </c>
       <c r="V17" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395617</v>
       </c>
       <c r="W17" t="n">
-        <v>338.8435355868396</v>
+        <v>338.8435355868397</v>
       </c>
       <c r="X17" t="n">
-        <v>359.3336675478956</v>
+        <v>359.3336675478957</v>
       </c>
       <c r="Y17" t="n">
-        <v>375.8405055254802</v>
+        <v>375.8405055254804</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.359993135336595</v>
       </c>
       <c r="I19" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5181508894473</v>
+        <v>188.4909732587353</v>
       </c>
       <c r="T19" t="n">
-        <v>211.3873581368307</v>
+        <v>211.3873581368308</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.8429477387575</v>
       </c>
       <c r="V19" t="n">
-        <v>241.7402101932546</v>
+        <v>241.7402101932547</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1255652060178</v>
       </c>
       <c r="X19" t="n">
-        <v>215.3122222584637</v>
+        <v>215.3122222584639</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>372.3364085329072</v>
       </c>
       <c r="C20" t="n">
-        <v>354.8754586404342</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D20" t="n">
         <v>344.2856084901096</v>
@@ -2090,16 +2090,16 @@
         <v>371.5329369416884</v>
       </c>
       <c r="F20" t="n">
-        <v>396.4786126111381</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G20" t="n">
         <v>401.6908603532261</v>
       </c>
       <c r="H20" t="n">
-        <v>296.1574440492784</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I20" t="n">
-        <v>76.15360292176773</v>
+        <v>76.15360292176769</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>198.6271876863865</v>
       </c>
       <c r="U20" t="n">
-        <v>240.6910642547563</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V20" t="n">
-        <v>317.3548253395616</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W20" t="n">
-        <v>338.8435355868397</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X20" t="n">
-        <v>359.3336675478957</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y20" t="n">
         <v>375.8405055254802</v>
@@ -2178,7 +2178,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I21" t="n">
-        <v>30.18149436614536</v>
+        <v>30.18149436614537</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.434547051364</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8493879680545</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D22" t="n">
         <v>138.218039887639</v>
       </c>
       <c r="E22" t="n">
-        <v>136.0365295159959</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.0236148923579</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G22" t="n">
-        <v>7.176009392970693</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>188.4909732587352</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.8429477387574</v>
+        <v>11.28868434278269</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1872202215215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>372.3364085329067</v>
+        <v>372.3364085329072</v>
       </c>
       <c r="C23" t="n">
-        <v>354.8754586404342</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D23" t="n">
         <v>344.2856084901096</v>
@@ -2327,16 +2327,16 @@
         <v>371.5329369416884</v>
       </c>
       <c r="F23" t="n">
-        <v>396.4786126111381</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G23" t="n">
         <v>401.6908603532261</v>
       </c>
       <c r="H23" t="n">
-        <v>296.1574440492784</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I23" t="n">
-        <v>76.15360292176776</v>
+        <v>76.15360292176764</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3734930916126</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T23" t="n">
-        <v>198.6271876863865</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U23" t="n">
-        <v>240.6910642547563</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V23" t="n">
-        <v>317.3548253395616</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W23" t="n">
-        <v>338.8435355868397</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X23" t="n">
-        <v>359.3336675478957</v>
+        <v>359.3336675478953</v>
       </c>
       <c r="Y23" t="n">
         <v>375.8405055254802</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.434547051364</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>115.9685317380402</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>25.41641934270788</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T25" t="n">
-        <v>211.3873581368308</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.8429477387574</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.7402101932547</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W25" t="n">
-        <v>276.1255652060177</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X25" t="n">
-        <v>215.3122222584638</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>296.1574440492783</v>
       </c>
       <c r="I26" t="n">
-        <v>76.15360292176764</v>
+        <v>76.15360292176766</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T26" t="n">
         <v>198.6271876863864</v>
@@ -2621,7 +2621,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.8405055254809</v>
+        <v>375.8405055254802</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.359993135337847</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.359993135337646</v>
       </c>
       <c r="S28" t="n">
         <v>188.4909732587351</v>
@@ -2810,7 +2810,7 @@
         <v>296.1574440492783</v>
       </c>
       <c r="I29" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176764</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3734930916125</v>
+        <v>125.3734930916126</v>
       </c>
       <c r="T29" t="n">
         <v>198.6271876863864</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.359993135337621</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.07385800289798</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>211.3873581368307</v>
       </c>
       <c r="U31" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>241.7402101932546</v>
       </c>
       <c r="W31" t="n">
-        <v>276.1255652060176</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>215.3122222584637</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>294.6297480291587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>284.0398978788342</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.0882934837995</v>
+        <v>397.4130840088955</v>
       </c>
       <c r="H32" t="n">
-        <v>306.5548771798517</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I32" t="n">
-        <v>86.55103605234108</v>
+        <v>15.90789231049227</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>209.0246208169599</v>
       </c>
       <c r="U32" t="n">
-        <v>236.4132879104249</v>
+        <v>251.0884973853296</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D34" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E34" t="n">
-        <v>75.79081890472035</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F34" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G34" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H34" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I34" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.81767805298122</v>
+        <v>41.81767805298124</v>
       </c>
       <c r="S34" t="n">
         <v>128.2452626474598</v>
@@ -3266,13 +3266,13 @@
         <v>312.0906979216318</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>294.6297480291587</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>367.2551605973571</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>306.5548771798517</v>
       </c>
       <c r="I35" t="n">
-        <v>15.90789231049227</v>
+        <v>86.55103605234108</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>251.0884973853296</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>313.0770489952299</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3503,10 +3503,10 @@
         <v>312.0906979216318</v>
       </c>
       <c r="C38" t="n">
-        <v>294.6297480291587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>340.0078321457783</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>306.5548771798517</v>
       </c>
       <c r="I38" t="n">
-        <v>86.55103605234108</v>
+        <v>15.9078923104923</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>135.7709262221859</v>
+        <v>121.0957167472825</v>
       </c>
       <c r="T38" t="n">
         <v>209.0246208169599</v>
@@ -3661,25 +3661,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C40" t="n">
-        <v>96.60367735677904</v>
+        <v>96.60367735677906</v>
       </c>
       <c r="D40" t="n">
-        <v>77.97232927636357</v>
+        <v>77.97232927636358</v>
       </c>
       <c r="E40" t="n">
-        <v>75.79081890472038</v>
+        <v>75.7908189047204</v>
       </c>
       <c r="F40" t="n">
-        <v>74.77790428108246</v>
+        <v>74.77790428108247</v>
       </c>
       <c r="G40" t="n">
-        <v>95.90594668534079</v>
+        <v>95.90594668534081</v>
       </c>
       <c r="H40" t="n">
-        <v>78.76432535848848</v>
+        <v>78.76432535848849</v>
       </c>
       <c r="I40" t="n">
-        <v>41.44579859778737</v>
+        <v>41.44579859778739</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.81767805298125</v>
+        <v>41.81767805298126</v>
       </c>
       <c r="S40" t="n">
         <v>128.2452626474598</v>
@@ -3715,7 +3715,7 @@
         <v>151.1416475255553</v>
       </c>
       <c r="U40" t="n">
-        <v>215.5972371274819</v>
+        <v>215.597237127482</v>
       </c>
       <c r="V40" t="n">
         <v>181.4944995819792</v>
@@ -3724,7 +3724,7 @@
         <v>215.8798545947422</v>
       </c>
       <c r="X40" t="n">
-        <v>155.0665116471883</v>
+        <v>155.0665116471884</v>
       </c>
       <c r="Y40" t="n">
         <v>147.941509610246</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>312.0906979216318</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>294.6297480291588</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>311.287226330413</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>412.0882934837995</v>
       </c>
       <c r="H41" t="n">
-        <v>291.8796677049475</v>
+        <v>291.8796677049469</v>
       </c>
       <c r="I41" t="n">
         <v>86.55103605234108</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.12778248033705</v>
+        <v>135.7709262221859</v>
       </c>
       <c r="T41" t="n">
         <v>209.0246208169599</v>
@@ -3898,25 +3898,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C43" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677906</v>
       </c>
       <c r="D43" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636358</v>
       </c>
       <c r="E43" t="n">
-        <v>75.79081890472035</v>
+        <v>75.7908189047204</v>
       </c>
       <c r="F43" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108247</v>
       </c>
       <c r="G43" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534081</v>
       </c>
       <c r="H43" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848849</v>
       </c>
       <c r="I43" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778739</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.81767805298122</v>
+        <v>41.81767805298126</v>
       </c>
       <c r="S43" t="n">
         <v>128.2452626474598</v>
@@ -3952,7 +3952,7 @@
         <v>151.1416475255553</v>
       </c>
       <c r="U43" t="n">
-        <v>215.5972371274819</v>
+        <v>215.597237127482</v>
       </c>
       <c r="V43" t="n">
         <v>181.4944995819792</v>
@@ -3961,7 +3961,7 @@
         <v>215.8798545947422</v>
       </c>
       <c r="X43" t="n">
-        <v>155.0665116471883</v>
+        <v>155.0665116471884</v>
       </c>
       <c r="Y43" t="n">
         <v>147.941509610246</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>367.2551605973567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3992,10 @@
         <v>412.0882934837995</v>
       </c>
       <c r="H44" t="n">
-        <v>306.5548771798517</v>
+        <v>291.8796677049473</v>
       </c>
       <c r="I44" t="n">
-        <v>15.90789231049227</v>
+        <v>86.55103605234108</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>135.7709262221859</v>
+        <v>65.12778248033705</v>
       </c>
       <c r="T44" t="n">
         <v>209.0246208169599</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0884973853296</v>
+        <v>180.4453536434808</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>299.0879569366202</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60367735677903</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D46" t="n">
-        <v>77.97232927636355</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E46" t="n">
-        <v>75.79081890472037</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F46" t="n">
-        <v>74.77790428108244</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G46" t="n">
-        <v>95.90594668534078</v>
+        <v>95.90594668534077</v>
       </c>
       <c r="H46" t="n">
-        <v>78.76432535848846</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I46" t="n">
-        <v>41.44579859778736</v>
+        <v>41.44579859778734</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.81767805298124</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S46" t="n">
         <v>128.2452626474598</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>896.7353068029593</v>
+        <v>338.843359929514</v>
       </c>
       <c r="C2" t="n">
-        <v>896.7353068029593</v>
+        <v>338.843359929514</v>
       </c>
       <c r="D2" t="n">
-        <v>896.7353068029593</v>
+        <v>59.89738649279127</v>
       </c>
       <c r="E2" t="n">
-        <v>617.7893333662366</v>
+        <v>59.89738649279127</v>
       </c>
       <c r="F2" t="n">
-        <v>338.843359929514</v>
+        <v>52.95188574358779</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618843</v>
@@ -4364,16 +4364,16 @@
         <v>896.7353068029593</v>
       </c>
       <c r="V2" t="n">
-        <v>896.7353068029593</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="W2" t="n">
-        <v>896.7353068029593</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="X2" t="n">
-        <v>896.7353068029593</v>
+        <v>617.7893333662366</v>
       </c>
       <c r="Y2" t="n">
-        <v>896.7353068029593</v>
+        <v>617.7893333662366</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.772397078701</v>
+        <v>502.317563355886</v>
       </c>
       <c r="C3" t="n">
-        <v>109.772397078701</v>
+        <v>327.864534074759</v>
       </c>
       <c r="D3" t="n">
-        <v>109.772397078701</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618843</v>
@@ -4410,10 +4410,10 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>121.6947060708166</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>367.8501726635175</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
         <v>641.2451212288494</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.23197461003</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.23197461003</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.23197461003</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U3" t="n">
-        <v>807.0133622441781</v>
+        <v>710.1690635614189</v>
       </c>
       <c r="V3" t="n">
-        <v>571.8612540124354</v>
+        <v>710.1690635614189</v>
       </c>
       <c r="W3" t="n">
-        <v>317.6238972842338</v>
+        <v>710.1690635614189</v>
       </c>
       <c r="X3" t="n">
-        <v>109.772397078701</v>
+        <v>502.317563355886</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.772397078701</v>
+        <v>502.317563355886</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>37.17560255650359</v>
+        <v>52.10276950522544</v>
       </c>
       <c r="G4" t="n">
-        <v>37.17560255650359</v>
+        <v>52.10276950522544</v>
       </c>
       <c r="H4" t="n">
-        <v>37.17560255650359</v>
+        <v>52.10276950522544</v>
       </c>
       <c r="I4" t="n">
-        <v>37.17560255650359</v>
+        <v>52.10276950522544</v>
       </c>
       <c r="J4" t="n">
         <v>37.17560255650359</v>
@@ -4522,16 +4522,16 @@
         <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.17560255650359</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1135.830077894154</v>
+        <v>789.8582189171115</v>
       </c>
       <c r="C5" t="n">
-        <v>1135.830077894154</v>
+        <v>789.8582189171115</v>
       </c>
       <c r="D5" t="n">
-        <v>777.5643792874033</v>
+        <v>789.8582189171115</v>
       </c>
       <c r="E5" t="n">
-        <v>406.9319829146639</v>
+        <v>419.2258225443704</v>
       </c>
       <c r="F5" t="n">
-        <v>399.9864821654604</v>
+        <v>399.9864821654621</v>
       </c>
       <c r="G5" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="H5" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="I5" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="J5" t="n">
-        <v>55.7479199383082</v>
+        <v>55.74791993830877</v>
       </c>
       <c r="K5" t="n">
-        <v>216.0502396745431</v>
+        <v>216.0502396745442</v>
       </c>
       <c r="L5" t="n">
-        <v>467.1960697503074</v>
+        <v>467.1960697503093</v>
       </c>
       <c r="M5" t="n">
-        <v>763.2507418033917</v>
+        <v>763.2507418033947</v>
       </c>
       <c r="N5" t="n">
-        <v>1049.463890420112</v>
+        <v>1049.463890420116</v>
       </c>
       <c r="O5" t="n">
-        <v>1274.539212778867</v>
+        <v>1274.539212778872</v>
       </c>
       <c r="P5" t="n">
-        <v>1428.961410202909</v>
+        <v>1428.961410202915</v>
       </c>
       <c r="Q5" t="n">
-        <v>1467.704289636048</v>
+        <v>1467.704289636054</v>
       </c>
       <c r="R5" t="n">
-        <v>1467.704289636048</v>
+        <v>1467.704289636054</v>
       </c>
       <c r="S5" t="n">
-        <v>1467.704289636048</v>
+        <v>1267.043826100217</v>
       </c>
       <c r="T5" t="n">
-        <v>1467.704289636048</v>
+        <v>1043.705956580413</v>
       </c>
       <c r="U5" t="n">
-        <v>1467.704289636048</v>
+        <v>789.8582189171115</v>
       </c>
       <c r="V5" t="n">
-        <v>1467.704289636048</v>
+        <v>789.8582189171115</v>
       </c>
       <c r="W5" t="n">
-        <v>1467.704289636048</v>
+        <v>789.8582189171115</v>
       </c>
       <c r="X5" t="n">
-        <v>1467.704289636048</v>
+        <v>789.8582189171115</v>
       </c>
       <c r="Y5" t="n">
-        <v>1135.830077894154</v>
+        <v>789.8582189171115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>583.364401431492</v>
+        <v>815.3750272087807</v>
       </c>
       <c r="C6" t="n">
-        <v>408.911372150365</v>
+        <v>815.3750272087807</v>
       </c>
       <c r="D6" t="n">
-        <v>408.911372150365</v>
+        <v>666.4406175475294</v>
       </c>
       <c r="E6" t="n">
-        <v>249.6739171449094</v>
+        <v>507.2031625420739</v>
       </c>
       <c r="F6" t="n">
-        <v>249.6739171449094</v>
+        <v>360.6686045689589</v>
       </c>
       <c r="G6" t="n">
-        <v>111.1889473961847</v>
+        <v>222.1836348202341</v>
       </c>
       <c r="H6" t="n">
         <v>111.1889473961847</v>
       </c>
       <c r="I6" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="J6" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6219088189723</v>
+        <v>193.6219088189729</v>
       </c>
       <c r="L6" t="n">
-        <v>475.904665073049</v>
+        <v>475.9046650730502</v>
       </c>
       <c r="M6" t="n">
-        <v>839.1614767579709</v>
+        <v>839.1614767579737</v>
       </c>
       <c r="N6" t="n">
-        <v>932.9627456214262</v>
+        <v>1061.466322506881</v>
       </c>
       <c r="O6" t="n">
-        <v>1239.047420678514</v>
+        <v>1367.550997563969</v>
       </c>
       <c r="P6" t="n">
-        <v>1467.704289636048</v>
+        <v>1367.550997563969</v>
       </c>
       <c r="Q6" t="n">
-        <v>1467.704289636048</v>
+        <v>1467.704289636054</v>
       </c>
       <c r="R6" t="n">
-        <v>1455.679875742998</v>
+        <v>1381.799377932566</v>
       </c>
       <c r="S6" t="n">
-        <v>1455.679875742998</v>
+        <v>1212.948694597155</v>
       </c>
       <c r="T6" t="n">
-        <v>1254.484251976756</v>
+        <v>1023.135325973735</v>
       </c>
       <c r="U6" t="n">
-        <v>1026.276808428189</v>
+        <v>1023.135325973735</v>
       </c>
       <c r="V6" t="n">
-        <v>791.1247001964459</v>
+        <v>1023.135325973735</v>
       </c>
       <c r="W6" t="n">
-        <v>791.1247001964459</v>
+        <v>1023.135325973735</v>
       </c>
       <c r="X6" t="n">
-        <v>791.1247001964459</v>
+        <v>1023.135325973735</v>
       </c>
       <c r="Y6" t="n">
-        <v>583.364401431492</v>
+        <v>815.3750272087807</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="C7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1009137620895</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1009137620895</v>
+        <v>176.2440332906314</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1009137620895</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1009137620895</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="H7" t="n">
-        <v>109.0838065727327</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="I7" t="n">
-        <v>109.0838065727327</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="J7" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272109</v>
       </c>
       <c r="K7" t="n">
-        <v>30.77780568486958</v>
+        <v>30.77780568486998</v>
       </c>
       <c r="L7" t="n">
-        <v>88.12611158017894</v>
+        <v>88.1261115801797</v>
       </c>
       <c r="M7" t="n">
-        <v>158.9809824154747</v>
+        <v>158.9809824154758</v>
       </c>
       <c r="N7" t="n">
-        <v>233.5856992125834</v>
+        <v>233.5856992125848</v>
       </c>
       <c r="O7" t="n">
-        <v>286.4789347835441</v>
+        <v>286.4789347835459</v>
       </c>
       <c r="P7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="Q7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="R7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="S7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="T7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="U7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="V7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="W7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="X7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
       <c r="Y7" t="n">
-        <v>308.2175531744252</v>
+        <v>308.2175531744273</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1167.311376017672</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2310.781388484024</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2310.781388484024</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.315630222944</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,25 +4887,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4987,13 +4987,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
         <v>343.360151857325</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.01127371568</v>
       </c>
       <c r="C11" t="n">
-        <v>1999.551214482916</v>
+        <v>1999.551214482918</v>
       </c>
       <c r="D11" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583817</v>
       </c>
       <c r="E11" t="n">
-        <v>1276.502178693221</v>
+        <v>1276.502178693223</v>
       </c>
       <c r="F11" t="n">
-        <v>876.0187316112638</v>
+        <v>876.0187316112647</v>
       </c>
       <c r="G11" t="n">
-        <v>470.2703878201265</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H11" t="n">
-        <v>171.1214544370171</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I11" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290834</v>
       </c>
       <c r="J11" t="n">
         <v>352.4625266553649</v>
       </c>
       <c r="K11" t="n">
-        <v>860.27797416778</v>
+        <v>860.2779741677805</v>
       </c>
       <c r="L11" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462679</v>
       </c>
       <c r="M11" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N11" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O11" t="n">
         <v>3777.360983129468</v>
       </c>
       <c r="P11" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485004</v>
       </c>
       <c r="Q11" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222605</v>
       </c>
       <c r="R11" t="n">
         <v>4709.931160145416</v>
       </c>
       <c r="S11" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133687</v>
       </c>
       <c r="T11" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218145</v>
       </c>
       <c r="U11" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092128</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456208</v>
       </c>
       <c r="W11" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893744</v>
       </c>
       <c r="X11" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340314</v>
       </c>
       <c r="Y11" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290834</v>
       </c>
       <c r="J12" t="n">
-        <v>129.4953301443201</v>
+        <v>129.4953301443202</v>
       </c>
       <c r="K12" t="n">
-        <v>267.9778490088834</v>
+        <v>529.7984336513364</v>
       </c>
       <c r="L12" t="n">
-        <v>500.5072265817308</v>
+        <v>762.3278112241838</v>
       </c>
       <c r="M12" t="n">
-        <v>791.2149106793263</v>
+        <v>1053.035495321779</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.574357663139</v>
+        <v>1699.957075535941</v>
       </c>
       <c r="O12" t="n">
-        <v>1842.515054164581</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P12" t="n">
-        <v>2350.295807240092</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q12" t="n">
         <v>2625.087782060009</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.6144724450907</v>
+        <v>666.0446557928551</v>
       </c>
       <c r="C13" t="n">
-        <v>510.6144724450907</v>
+        <v>507.610930572598</v>
       </c>
       <c r="D13" t="n">
-        <v>371.0002907404049</v>
+        <v>367.9967488679121</v>
       </c>
       <c r="E13" t="n">
-        <v>371.0002907404049</v>
+        <v>230.5861129931688</v>
       </c>
       <c r="F13" t="n">
-        <v>234.6128009501445</v>
+        <v>94.19862320290834</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6128009501445</v>
+        <v>94.19862320290834</v>
       </c>
       <c r="H13" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290834</v>
       </c>
       <c r="I13" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290834</v>
       </c>
       <c r="J13" t="n">
         <v>112.9886256529933</v>
       </c>
       <c r="K13" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L13" t="n">
-        <v>516.9148004639829</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M13" t="n">
         <v>790.1587150323423</v>
@@ -5218,31 +5218,31 @@
         <v>1479.229254818016</v>
       </c>
       <c r="Q13" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R13" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S13" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T13" t="n">
-        <v>1310.230857334793</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="U13" t="n">
-        <v>1310.230857334793</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="V13" t="n">
-        <v>1066.048826836556</v>
+        <v>1279.571410813153</v>
       </c>
       <c r="W13" t="n">
-        <v>892.0506010035606</v>
+        <v>1000.656698483842</v>
       </c>
       <c r="X13" t="n">
-        <v>892.0506010035606</v>
+        <v>783.1696052934744</v>
       </c>
       <c r="Y13" t="n">
-        <v>681.7604795676805</v>
+        <v>783.1696052934744</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C14" t="n">
         <v>1999.551214482917</v>
@@ -5264,10 +5264,10 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F14" t="n">
-        <v>876.0187316112639</v>
+        <v>876.018731611264</v>
       </c>
       <c r="G14" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H14" t="n">
         <v>171.1214544370171</v>
@@ -5276,19 +5276,19 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J14" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K14" t="n">
-        <v>860.2779741677805</v>
+        <v>860.2779741677796</v>
       </c>
       <c r="L14" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M14" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N14" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O14" t="n">
         <v>3777.360983129468</v>
@@ -5303,25 +5303,25 @@
         <v>4709.931160145416</v>
       </c>
       <c r="S14" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133686</v>
       </c>
       <c r="T14" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U14" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092128</v>
       </c>
       <c r="V14" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456207</v>
       </c>
       <c r="W14" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893743</v>
       </c>
       <c r="X14" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340313</v>
       </c>
       <c r="Y14" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J15" t="n">
-        <v>218.4048107615218</v>
+        <v>129.4953301443202</v>
       </c>
       <c r="K15" t="n">
-        <v>356.8873296260851</v>
+        <v>267.9778490088836</v>
       </c>
       <c r="L15" t="n">
-        <v>956.5486490493571</v>
+        <v>867.6391684321557</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.256333146953</v>
+        <v>1158.346852529751</v>
       </c>
       <c r="N15" t="n">
-        <v>1560.066829530647</v>
+        <v>1471.157348913446</v>
       </c>
       <c r="O15" t="n">
-        <v>1824.00752603209</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P15" t="n">
-        <v>2331.7882791076</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q15" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R15" t="n">
         <v>2625.087782060009</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.6746255898595</v>
+        <v>127.0687458086163</v>
       </c>
       <c r="C16" t="n">
-        <v>634.6746255898595</v>
+        <v>127.0687458086163</v>
       </c>
       <c r="D16" t="n">
-        <v>495.0604438851737</v>
+        <v>127.0687458086163</v>
       </c>
       <c r="E16" t="n">
-        <v>495.0604438851737</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="F16" t="n">
-        <v>495.0604438851737</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3314971209149</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H16" t="n">
-        <v>196.9173193736787</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I16" t="n">
         <v>94.19862320290831</v>
@@ -5464,22 +5464,22 @@
         <v>1523.75344131139</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.75344131139</v>
+        <v>1310.230857334793</v>
       </c>
       <c r="U16" t="n">
-        <v>1328.917375539997</v>
+        <v>1031.601617194634</v>
       </c>
       <c r="V16" t="n">
-        <v>1084.73534504176</v>
+        <v>787.419586696397</v>
       </c>
       <c r="W16" t="n">
-        <v>805.8206327124494</v>
+        <v>508.5048743670862</v>
       </c>
       <c r="X16" t="n">
-        <v>805.8206327124494</v>
+        <v>508.5048743670862</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.8206327124494</v>
+        <v>298.214752931206</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C17" t="n">
-        <v>1999.551214482916</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D17" t="n">
         <v>1651.787973583816</v>
@@ -5501,13 +5501,13 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F17" t="n">
-        <v>876.0187316112639</v>
+        <v>876.0187316112642</v>
       </c>
       <c r="G17" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201268</v>
       </c>
       <c r="H17" t="n">
-        <v>171.1214544370171</v>
+        <v>171.1214544370172</v>
       </c>
       <c r="I17" t="n">
         <v>94.19862320290831</v>
@@ -5546,19 +5546,19 @@
         <v>4382.657745218144</v>
       </c>
       <c r="U17" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092129</v>
       </c>
       <c r="V17" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456208</v>
       </c>
       <c r="W17" t="n">
-        <v>3476.708830893741</v>
+        <v>3476.708830893744</v>
       </c>
       <c r="X17" t="n">
-        <v>3113.745530340311</v>
+        <v>3113.745530340314</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K18" t="n">
-        <v>529.7984336513362</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L18" t="n">
-        <v>1129.459753074608</v>
+        <v>867.6391684321554</v>
       </c>
       <c r="M18" t="n">
-        <v>1461.792134282671</v>
+        <v>1158.346852529751</v>
       </c>
       <c r="N18" t="n">
-        <v>1774.602630666366</v>
+        <v>1471.157348913446</v>
       </c>
       <c r="O18" t="n">
-        <v>2038.543327167808</v>
+        <v>2125.02174149885</v>
       </c>
       <c r="P18" t="n">
         <v>2546.324080243319</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>491.0337559281979</v>
+        <v>100.6228586931472</v>
       </c>
       <c r="C19" t="n">
-        <v>491.0337559281979</v>
+        <v>100.6228586931472</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0337559281979</v>
+        <v>100.6228586931472</v>
       </c>
       <c r="E19" t="n">
-        <v>491.0337559281979</v>
+        <v>100.6228586931472</v>
       </c>
       <c r="F19" t="n">
-        <v>354.6462661379375</v>
+        <v>100.6228586931472</v>
       </c>
       <c r="G19" t="n">
-        <v>196.9173193736788</v>
+        <v>100.6228586931472</v>
       </c>
       <c r="H19" t="n">
-        <v>196.9173193736788</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I19" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529932</v>
       </c>
       <c r="K19" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192172</v>
       </c>
       <c r="L19" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639826</v>
       </c>
       <c r="M19" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323418</v>
       </c>
       <c r="N19" t="n">
-        <v>1062.584871907533</v>
+        <v>1062.584871907532</v>
       </c>
       <c r="O19" t="n">
-        <v>1298.984009272058</v>
+        <v>1298.984009272057</v>
       </c>
       <c r="P19" t="n">
-        <v>1479.229254818016</v>
+        <v>1479.229254818015</v>
       </c>
       <c r="Q19" t="n">
-        <v>1523.75344131139</v>
+        <v>1523.753441311388</v>
       </c>
       <c r="R19" t="n">
-        <v>1523.75344131139</v>
+        <v>1523.753441311388</v>
       </c>
       <c r="S19" t="n">
-        <v>1337.371470715989</v>
+        <v>1333.358518827817</v>
       </c>
       <c r="T19" t="n">
-        <v>1123.848886739392</v>
+        <v>1119.83593485122</v>
       </c>
       <c r="U19" t="n">
-        <v>1123.848886739392</v>
+        <v>841.2066947110628</v>
       </c>
       <c r="V19" t="n">
-        <v>879.6668562411552</v>
+        <v>597.0246642128257</v>
       </c>
       <c r="W19" t="n">
-        <v>879.6668562411552</v>
+        <v>318.1099518835148</v>
       </c>
       <c r="X19" t="n">
-        <v>662.1797630507878</v>
+        <v>100.6228586931472</v>
       </c>
       <c r="Y19" t="n">
-        <v>662.1797630507878</v>
+        <v>100.6228586931472</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.01127371568</v>
       </c>
       <c r="C20" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482918</v>
       </c>
       <c r="D20" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583817</v>
       </c>
       <c r="E20" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693223</v>
       </c>
       <c r="F20" t="n">
-        <v>876.0187316112642</v>
+        <v>876.0187316112648</v>
       </c>
       <c r="G20" t="n">
-        <v>470.2703878201254</v>
+        <v>470.2703878201273</v>
       </c>
       <c r="H20" t="n">
-        <v>171.1214544370159</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I20" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J20" t="n">
         <v>352.4625266553649</v>
@@ -5759,43 +5759,43 @@
         <v>1542.544568462678</v>
       </c>
       <c r="M20" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N20" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O20" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P20" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q20" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R20" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S20" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T20" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U20" t="n">
         <v>4139.535458092128</v>
       </c>
       <c r="V20" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456208</v>
       </c>
       <c r="W20" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893744</v>
       </c>
       <c r="X20" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340314</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.108656072152</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I21" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J21" t="n">
         <v>129.4953301443201</v>
       </c>
       <c r="K21" t="n">
-        <v>529.7984336513363</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L21" t="n">
         <v>1129.459753074608</v>
       </c>
       <c r="M21" t="n">
-        <v>1461.792134282671</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N21" t="n">
-        <v>1774.602630666366</v>
+        <v>1732.977933555899</v>
       </c>
       <c r="O21" t="n">
         <v>2038.543327167808</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>673.2931501291891</v>
+        <v>771.7668938361184</v>
       </c>
       <c r="C22" t="n">
-        <v>514.8594249089324</v>
+        <v>613.3331686158614</v>
       </c>
       <c r="D22" t="n">
-        <v>375.2452432042465</v>
+        <v>473.7189869111755</v>
       </c>
       <c r="E22" t="n">
-        <v>237.8346073295032</v>
+        <v>473.7189869111755</v>
       </c>
       <c r="F22" t="n">
-        <v>101.4471175392423</v>
+        <v>337.3314971209151</v>
       </c>
       <c r="G22" t="n">
-        <v>94.19862320290831</v>
+        <v>337.3314971209151</v>
       </c>
       <c r="H22" t="n">
-        <v>94.19862320290831</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="I22" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9886256529932</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K22" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L22" t="n">
-        <v>516.9148004639828</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M22" t="n">
-        <v>790.158715032342</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N22" t="n">
-        <v>1062.584871907532</v>
+        <v>1062.584871907533</v>
       </c>
       <c r="O22" t="n">
         <v>1298.984009272058</v>
@@ -5929,31 +5929,31 @@
         <v>1479.229254818016</v>
       </c>
       <c r="Q22" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R22" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S22" t="n">
-        <v>1333.358518827818</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T22" t="n">
-        <v>1333.358518827818</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="U22" t="n">
-        <v>1054.729278687659</v>
+        <v>1512.350729854034</v>
       </c>
       <c r="V22" t="n">
-        <v>1054.729278687659</v>
+        <v>1268.168699355797</v>
       </c>
       <c r="W22" t="n">
-        <v>1054.729278687659</v>
+        <v>989.2539870264859</v>
       </c>
       <c r="X22" t="n">
-        <v>1054.729278687659</v>
+        <v>771.7668938361184</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.4391572517791</v>
+        <v>771.7668938361184</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C23" t="n">
         <v>1999.551214482917</v>
@@ -5975,64 +5975,64 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F23" t="n">
-        <v>876.0187316112642</v>
+        <v>876.0187316112639</v>
       </c>
       <c r="G23" t="n">
-        <v>470.2703878201266</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H23" t="n">
-        <v>171.1214544370172</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I23" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J23" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K23" t="n">
-        <v>860.27797416778</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L23" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M23" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N23" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O23" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P23" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q23" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R23" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S23" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T23" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U23" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V23" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W23" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X23" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I24" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J24" t="n">
-        <v>254.3254551313249</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K24" t="n">
-        <v>654.628558638341</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L24" t="n">
-        <v>887.1579362111884</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.256333146953</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N24" t="n">
-        <v>1560.066829530647</v>
+        <v>1732.977933555899</v>
       </c>
       <c r="O24" t="n">
-        <v>1824.00752603209</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P24" t="n">
-        <v>2331.7882791076</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q24" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R24" t="n">
         <v>2625.087782060009</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.19862320290831</v>
+        <v>211.3385542514338</v>
       </c>
       <c r="C25" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="D25" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="E25" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F25" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="G25" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="H25" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="I25" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J25" t="n">
         <v>112.9886256529933</v>
       </c>
       <c r="K25" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L25" t="n">
-        <v>516.9148004639828</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M25" t="n">
-        <v>790.1587150323419</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N25" t="n">
-        <v>1062.584871907532</v>
+        <v>1062.584871907533</v>
       </c>
       <c r="O25" t="n">
-        <v>1298.984009272057</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P25" t="n">
         <v>1479.229254818016</v>
       </c>
       <c r="Q25" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R25" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.080290460169</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="T25" t="n">
-        <v>1284.557706483572</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="U25" t="n">
-        <v>1005.928466343413</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="V25" t="n">
-        <v>761.7464358451764</v>
+        <v>1089.176488329582</v>
       </c>
       <c r="W25" t="n">
-        <v>482.8317235158657</v>
+        <v>810.2617760002713</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3446303254982</v>
+        <v>592.7746828099039</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3446303254982</v>
+        <v>382.4845613740237</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C26" t="n">
         <v>1999.551214482917</v>
       </c>
       <c r="D26" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583817</v>
       </c>
       <c r="E26" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693223</v>
       </c>
       <c r="F26" t="n">
-        <v>876.018731611264</v>
+        <v>876.0187316112648</v>
       </c>
       <c r="G26" t="n">
-        <v>470.2703878201265</v>
+        <v>470.2703878201273</v>
       </c>
       <c r="H26" t="n">
         <v>171.1214544370171</v>
@@ -6224,25 +6224,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J26" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2779741677803</v>
+        <v>860.2779741677791</v>
       </c>
       <c r="L26" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M26" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N26" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O26" t="n">
         <v>3777.360983129467</v>
       </c>
       <c r="P26" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485003</v>
       </c>
       <c r="Q26" t="n">
         <v>4658.401460222604</v>
@@ -6269,7 +6269,7 @@
         <v>3113.745530340313</v>
       </c>
       <c r="Y26" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J27" t="n">
-        <v>254.3254551313249</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K27" t="n">
-        <v>654.628558638341</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L27" t="n">
-        <v>963.1079353265849</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M27" t="n">
-        <v>1253.81561942418</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N27" t="n">
-        <v>1566.626115807875</v>
+        <v>1732.977933555899</v>
       </c>
       <c r="O27" t="n">
-        <v>1830.566812309317</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P27" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q27" t="n">
         <v>2625.087782060009</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="C28" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="D28" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="E28" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="F28" t="n">
         <v>94.19862320290831</v>
@@ -6406,28 +6406,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.75344131139</v>
+        <v>1517.32920582115</v>
       </c>
       <c r="S28" t="n">
-        <v>1333.358518827819</v>
+        <v>1326.934283337579</v>
       </c>
       <c r="T28" t="n">
-        <v>1119.835934851222</v>
+        <v>1113.411699360982</v>
       </c>
       <c r="U28" t="n">
-        <v>841.2066947110636</v>
+        <v>834.7824592208234</v>
       </c>
       <c r="V28" t="n">
-        <v>597.0246642128266</v>
+        <v>590.6004287225865</v>
       </c>
       <c r="W28" t="n">
-        <v>318.1099518835159</v>
+        <v>311.6857163932757</v>
       </c>
       <c r="X28" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290831</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2358.011273715678</v>
       </c>
       <c r="C29" t="n">
-        <v>1999.551214482916</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D29" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E29" t="n">
-        <v>1276.502178693221</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F29" t="n">
-        <v>876.0187316112638</v>
+        <v>876.018731611264</v>
       </c>
       <c r="G29" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H29" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I29" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J29" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K29" t="n">
-        <v>860.2779741677791</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L29" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M29" t="n">
-        <v>2318.304158787661</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N29" t="n">
-        <v>3091.984352769973</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O29" t="n">
         <v>3777.360983129467</v>
       </c>
       <c r="P29" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q29" t="n">
         <v>4658.401460222604</v>
@@ -6494,7 +6494,7 @@
         <v>4382.657745218144</v>
       </c>
       <c r="U29" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092128</v>
       </c>
       <c r="V29" t="n">
         <v>3818.975028456206</v>
@@ -6540,28 +6540,28 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J30" t="n">
-        <v>254.3254551313249</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K30" t="n">
-        <v>654.628558638341</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L30" t="n">
-        <v>887.1579362111884</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.256333146953</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N30" t="n">
-        <v>1560.066829530647</v>
+        <v>1732.977933555899</v>
       </c>
       <c r="O30" t="n">
-        <v>1824.00752603209</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P30" t="n">
-        <v>2331.7882791076</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q30" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R30" t="n">
         <v>2625.087782060009</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.19862320290831</v>
+        <v>447.8766897267379</v>
       </c>
       <c r="C31" t="n">
-        <v>94.19862320290831</v>
+        <v>289.442964506481</v>
       </c>
       <c r="D31" t="n">
-        <v>94.19862320290831</v>
+        <v>149.8287828017952</v>
       </c>
       <c r="E31" t="n">
-        <v>94.19862320290831</v>
+        <v>149.8287828017952</v>
       </c>
       <c r="F31" t="n">
-        <v>94.19862320290831</v>
+        <v>149.8287828017952</v>
       </c>
       <c r="G31" t="n">
-        <v>94.19862320290831</v>
+        <v>149.8287828017952</v>
       </c>
       <c r="H31" t="n">
-        <v>94.19862320290831</v>
+        <v>149.8287828017952</v>
       </c>
       <c r="I31" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J31" t="n">
-        <v>112.9886256529932</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K31" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L31" t="n">
-        <v>516.9148004639829</v>
+        <v>516.9148004639833</v>
       </c>
       <c r="M31" t="n">
-        <v>790.1587150323423</v>
+        <v>790.1587150323428</v>
       </c>
       <c r="N31" t="n">
         <v>1062.584871907533</v>
       </c>
       <c r="O31" t="n">
-        <v>1298.984009272058</v>
+        <v>1298.984009272059</v>
       </c>
       <c r="P31" t="n">
-        <v>1479.229254818016</v>
+        <v>1479.229254818017</v>
       </c>
       <c r="Q31" t="n">
         <v>1523.75344131139</v>
@@ -6649,22 +6649,22 @@
         <v>1333.358518827819</v>
       </c>
       <c r="T31" t="n">
-        <v>1119.835934851222</v>
+        <v>1119.835934851223</v>
       </c>
       <c r="U31" t="n">
-        <v>841.2066947110634</v>
+        <v>1119.835934851223</v>
       </c>
       <c r="V31" t="n">
-        <v>597.0246642128263</v>
+        <v>875.6539043529858</v>
       </c>
       <c r="W31" t="n">
-        <v>318.1099518835157</v>
+        <v>875.6539043529858</v>
       </c>
       <c r="X31" t="n">
-        <v>100.6228586931483</v>
+        <v>658.1668111626184</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.6228586931483</v>
+        <v>447.8766897267379</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2288.815055968523</v>
+        <v>2273.991612054479</v>
       </c>
       <c r="C32" t="n">
-        <v>1991.209249878464</v>
+        <v>1905.029095114067</v>
       </c>
       <c r="D32" t="n">
-        <v>1704.300262122066</v>
+        <v>1546.763396507316</v>
       </c>
       <c r="E32" t="n">
-        <v>1318.512009523821</v>
+        <v>1160.975143909072</v>
       </c>
       <c r="F32" t="n">
-        <v>907.5261047342137</v>
+        <v>749.9892391194646</v>
       </c>
       <c r="G32" t="n">
-        <v>491.2753032354263</v>
+        <v>348.5618815347216</v>
       </c>
       <c r="H32" t="n">
-        <v>181.623912144667</v>
+        <v>110.2672012943146</v>
       </c>
       <c r="I32" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J32" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K32" t="n">
-        <v>860.2779741677793</v>
+        <v>860.27797416778</v>
       </c>
       <c r="L32" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M32" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N32" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O32" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129468</v>
       </c>
       <c r="P32" t="n">
         <v>4324.639697485002</v>
       </c>
       <c r="Q32" t="n">
-        <v>4658.401460222603</v>
+        <v>4658.401460222604</v>
       </c>
       <c r="R32" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145416</v>
       </c>
       <c r="S32" t="n">
-        <v>4572.788810426035</v>
+        <v>4572.788810426036</v>
       </c>
       <c r="T32" t="n">
-        <v>4361.652829802842</v>
+        <v>4361.652829802843</v>
       </c>
       <c r="U32" t="n">
-        <v>4122.851528883221</v>
+        <v>4108.028084969177</v>
       </c>
       <c r="V32" t="n">
-        <v>3791.788641539651</v>
+        <v>3776.965197625606</v>
       </c>
       <c r="W32" t="n">
-        <v>3439.019986269536</v>
+        <v>3424.196542355492</v>
       </c>
       <c r="X32" t="n">
-        <v>3065.554228008456</v>
+        <v>3050.730784094412</v>
       </c>
       <c r="Y32" t="n">
-        <v>2675.414896032645</v>
+        <v>2660.591452118601</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I33" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J33" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K33" t="n">
-        <v>654.6285586383409</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L33" t="n">
-        <v>963.1079353265849</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M33" t="n">
-        <v>1253.81561942418</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N33" t="n">
-        <v>1566.626115807875</v>
+        <v>1732.977933555899</v>
       </c>
       <c r="O33" t="n">
-        <v>1830.566812309317</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P33" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q33" t="n">
         <v>2625.087782060009</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.9267044762032</v>
+        <v>640.9267044762029</v>
       </c>
       <c r="C34" t="n">
-        <v>543.3472323986487</v>
+        <v>543.3472323986483</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5873038366652</v>
+        <v>464.5873038366649</v>
       </c>
       <c r="E34" t="n">
-        <v>388.0309211046244</v>
+        <v>388.0309211046241</v>
       </c>
       <c r="F34" t="n">
-        <v>312.4976844570664</v>
+        <v>312.497684457066</v>
       </c>
       <c r="G34" t="n">
-        <v>215.6229908355101</v>
+        <v>215.6229908355102</v>
       </c>
       <c r="H34" t="n">
         <v>136.0630662309763</v>
       </c>
       <c r="I34" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J34" t="n">
-        <v>172.6318791581557</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K34" t="n">
         <v>386.3678594295428</v>
       </c>
       <c r="L34" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794705</v>
       </c>
       <c r="M34" t="n">
         <v>1028.731729052993</v>
@@ -6874,10 +6874,10 @@
         <v>1656.843530303034</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q34" t="n">
-        <v>2000.899469352691</v>
+        <v>2000.89946935269</v>
       </c>
       <c r="R34" t="n">
         <v>1958.659390511295</v>
@@ -6892,16 +6892,16 @@
         <v>1458.675403339076</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.347625983542</v>
+        <v>1275.347625983541</v>
       </c>
       <c r="W34" t="n">
         <v>1057.287166796933</v>
       </c>
       <c r="X34" t="n">
-        <v>900.6543267492684</v>
+        <v>900.654326749268</v>
       </c>
       <c r="Y34" t="n">
-        <v>751.2184584560906</v>
+        <v>751.2184584560903</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.34832290483</v>
+        <v>2360.171766818876</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.385805964419</v>
+        <v>2062.565960728816</v>
       </c>
       <c r="D35" t="n">
-        <v>1618.120107357668</v>
+        <v>1704.300262122066</v>
       </c>
       <c r="E35" t="n">
-        <v>1247.155298673469</v>
+        <v>1318.512009523821</v>
       </c>
       <c r="F35" t="n">
-        <v>836.1693938838614</v>
+        <v>907.5261047342137</v>
       </c>
       <c r="G35" t="n">
-        <v>419.918592385074</v>
+        <v>491.2753032354263</v>
       </c>
       <c r="H35" t="n">
-        <v>110.2672012943146</v>
+        <v>181.623912144667</v>
       </c>
       <c r="I35" t="n">
         <v>94.19862320290829</v>
@@ -6971,16 +6971,16 @@
         <v>4108.028084969176</v>
       </c>
       <c r="V35" t="n">
-        <v>3776.965197625605</v>
+        <v>3791.788641539651</v>
       </c>
       <c r="W35" t="n">
-        <v>3424.196542355491</v>
+        <v>3439.019986269537</v>
       </c>
       <c r="X35" t="n">
-        <v>3050.730784094411</v>
+        <v>3065.554228008457</v>
       </c>
       <c r="Y35" t="n">
-        <v>2660.5914521186</v>
+        <v>2675.414896032645</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J36" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K36" t="n">
-        <v>654.6285586383409</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L36" t="n">
-        <v>887.1579362111883</v>
+        <v>550.7656274259955</v>
       </c>
       <c r="M36" t="n">
-        <v>1177.865620308784</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N36" t="n">
-        <v>1490.676116692478</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O36" t="n">
-        <v>1824.00752603209</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P36" t="n">
-        <v>2331.7882791076</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q36" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R36" t="n">
         <v>2625.087782060009</v>
@@ -7084,7 +7084,7 @@
         <v>312.4976844570665</v>
       </c>
       <c r="G37" t="n">
-        <v>215.6229908355101</v>
+        <v>215.6229908355102</v>
       </c>
       <c r="H37" t="n">
         <v>136.0630662309763</v>
@@ -7093,13 +7093,13 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J37" t="n">
-        <v>172.6318791581559</v>
+        <v>172.6318791581557</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3678594295426</v>
+        <v>386.3678594295425</v>
       </c>
       <c r="L37" t="n">
-        <v>695.8445609794708</v>
+        <v>695.844560979471</v>
       </c>
       <c r="M37" t="n">
         <v>1028.731729052993</v>
@@ -7117,7 +7117,7 @@
         <v>2000.899469352691</v>
       </c>
       <c r="R37" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S37" t="n">
         <v>1829.118721170427</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.34832290483</v>
+        <v>2360.171766818875</v>
       </c>
       <c r="C38" t="n">
-        <v>2047.742516814771</v>
+        <v>1991.209249878464</v>
       </c>
       <c r="D38" t="n">
-        <v>1704.300262122066</v>
+        <v>1632.943551271713</v>
       </c>
       <c r="E38" t="n">
-        <v>1318.512009523821</v>
+        <v>1247.155298673469</v>
       </c>
       <c r="F38" t="n">
-        <v>907.5261047342137</v>
+        <v>836.1693938838614</v>
       </c>
       <c r="G38" t="n">
-        <v>491.2753032354263</v>
+        <v>419.918592385074</v>
       </c>
       <c r="H38" t="n">
-        <v>181.623912144667</v>
+        <v>110.2672012943147</v>
       </c>
       <c r="I38" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J38" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K38" t="n">
-        <v>860.2779741677793</v>
+        <v>860.27797416778</v>
       </c>
       <c r="L38" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M38" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N38" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O38" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129468</v>
       </c>
       <c r="P38" t="n">
         <v>4324.639697485002</v>
       </c>
       <c r="Q38" t="n">
-        <v>4658.401460222603</v>
+        <v>4658.401460222604</v>
       </c>
       <c r="R38" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145416</v>
       </c>
       <c r="S38" t="n">
-        <v>4572.788810426035</v>
+        <v>4587.61225434008</v>
       </c>
       <c r="T38" t="n">
-        <v>4361.652829802842</v>
+        <v>4376.476273716888</v>
       </c>
       <c r="U38" t="n">
-        <v>4108.028084969176</v>
+        <v>4122.851528883221</v>
       </c>
       <c r="V38" t="n">
-        <v>3776.965197625605</v>
+        <v>3791.788641539651</v>
       </c>
       <c r="W38" t="n">
-        <v>3424.196542355491</v>
+        <v>3439.019986269536</v>
       </c>
       <c r="X38" t="n">
-        <v>3050.730784094411</v>
+        <v>3065.554228008456</v>
       </c>
       <c r="Y38" t="n">
-        <v>2660.5914521186</v>
+        <v>2675.414896032645</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I39" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J39" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K39" t="n">
-        <v>654.6285586383409</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L39" t="n">
-        <v>887.1579362111883</v>
+        <v>500.5072265817308</v>
       </c>
       <c r="M39" t="n">
-        <v>1177.865620308784</v>
+        <v>1252.262923791826</v>
       </c>
       <c r="N39" t="n">
-        <v>1490.676116692478</v>
+        <v>2039.622370775639</v>
       </c>
       <c r="O39" t="n">
-        <v>1824.00752603209</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P39" t="n">
-        <v>2331.7882791076</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q39" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R39" t="n">
         <v>2625.087782060009</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.9267044762029</v>
+        <v>640.9267044762032</v>
       </c>
       <c r="C40" t="n">
-        <v>543.3472323986483</v>
+        <v>543.3472323986485</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5873038366649</v>
+        <v>464.5873038366651</v>
       </c>
       <c r="E40" t="n">
-        <v>388.0309211046241</v>
+        <v>388.0309211046243</v>
       </c>
       <c r="F40" t="n">
-        <v>312.497684457066</v>
+        <v>312.4976844570663</v>
       </c>
       <c r="G40" t="n">
-        <v>215.6229908355097</v>
+        <v>215.6229908355098</v>
       </c>
       <c r="H40" t="n">
         <v>136.0630662309759</v>
       </c>
       <c r="I40" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J40" t="n">
         <v>172.6318791581559</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3678594295429</v>
+        <v>386.3678594295427</v>
       </c>
       <c r="L40" t="n">
-        <v>695.8445609794711</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M40" t="n">
         <v>1028.731729052993</v>
       </c>
       <c r="N40" t="n">
-        <v>1360.801139433345</v>
+        <v>1360.801139433346</v>
       </c>
       <c r="O40" t="n">
         <v>1656.843530303034</v>
       </c>
       <c r="P40" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2000.89946935269</v>
+        <v>2000.899469352691</v>
       </c>
       <c r="R40" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S40" t="n">
-        <v>1829.118721170426</v>
+        <v>1829.118721170427</v>
       </c>
       <c r="T40" t="n">
         <v>1676.450390336533</v>
@@ -7366,16 +7366,16 @@
         <v>1458.675403339076</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.347625983541</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W40" t="n">
         <v>1057.287166796933</v>
       </c>
       <c r="X40" t="n">
-        <v>900.6543267492681</v>
+        <v>900.6543267492684</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2184584560903</v>
+        <v>751.2184584560906</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.348322904831</v>
+        <v>2345.34832290483</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.385805964419</v>
+        <v>2047.742516814771</v>
       </c>
       <c r="D41" t="n">
-        <v>1618.120107357669</v>
+        <v>1689.47681820802</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.688565609777</v>
+        <v>1303.688565609776</v>
       </c>
       <c r="F41" t="n">
-        <v>892.7026608201691</v>
+        <v>892.7026608201684</v>
       </c>
       <c r="G41" t="n">
-        <v>476.4518593213817</v>
+        <v>476.451859321381</v>
       </c>
       <c r="H41" t="n">
         <v>181.623912144667</v>
@@ -7415,7 +7415,7 @@
         <v>860.2779741677793</v>
       </c>
       <c r="L41" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M41" t="n">
         <v>2318.304158787662</v>
@@ -7436,25 +7436,25 @@
         <v>4709.931160145415</v>
       </c>
       <c r="S41" t="n">
-        <v>4644.145521276388</v>
+        <v>4572.788810426035</v>
       </c>
       <c r="T41" t="n">
-        <v>4433.009540653195</v>
+        <v>4361.652829802842</v>
       </c>
       <c r="U41" t="n">
-        <v>4179.384795819529</v>
+        <v>4108.028084969176</v>
       </c>
       <c r="V41" t="n">
-        <v>3848.321908475958</v>
+        <v>3776.965197625605</v>
       </c>
       <c r="W41" t="n">
-        <v>3495.553253205844</v>
+        <v>3424.196542355491</v>
       </c>
       <c r="X41" t="n">
-        <v>3122.087494944764</v>
+        <v>3050.730784094411</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.948162968953</v>
+        <v>2660.5914521186</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J42" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K42" t="n">
-        <v>654.6285586383409</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L42" t="n">
-        <v>887.1579362111883</v>
+        <v>550.7656274259955</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.865620308784</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N42" t="n">
-        <v>1566.626115807875</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O42" t="n">
-        <v>1830.566812309317</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P42" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q42" t="n">
         <v>2625.087782060009</v>
@@ -7546,40 +7546,40 @@
         <v>640.926704476203</v>
       </c>
       <c r="C43" t="n">
-        <v>543.3472323986484</v>
+        <v>543.3472323986483</v>
       </c>
       <c r="D43" t="n">
-        <v>464.587303836665</v>
+        <v>464.5873038366649</v>
       </c>
       <c r="E43" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046241</v>
       </c>
       <c r="F43" t="n">
-        <v>312.4976844570663</v>
+        <v>312.497684457066</v>
       </c>
       <c r="G43" t="n">
-        <v>215.6229908355099</v>
+        <v>215.6229908355097</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309758</v>
       </c>
       <c r="I43" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J43" t="n">
-        <v>172.6318791581559</v>
+        <v>172.6318791581558</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3678594295427</v>
+        <v>386.3678594295426</v>
       </c>
       <c r="L43" t="n">
-        <v>695.8445609794709</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M43" t="n">
-        <v>1028.731729052993</v>
+        <v>1028.731729052992</v>
       </c>
       <c r="N43" t="n">
-        <v>1360.801139433346</v>
+        <v>1360.801139433345</v>
       </c>
       <c r="O43" t="n">
         <v>1656.843530303034</v>
@@ -7588,7 +7588,7 @@
         <v>1896.732029354154</v>
       </c>
       <c r="Q43" t="n">
-        <v>2000.89946935269</v>
+        <v>2000.899469352691</v>
       </c>
       <c r="R43" t="n">
         <v>1958.659390511295</v>
@@ -7597,19 +7597,19 @@
         <v>1829.118721170427</v>
       </c>
       <c r="T43" t="n">
-        <v>1676.450390336532</v>
+        <v>1676.450390336533</v>
       </c>
       <c r="U43" t="n">
         <v>1458.675403339076</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.347625983541</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W43" t="n">
         <v>1057.287166796933</v>
       </c>
       <c r="X43" t="n">
-        <v>900.6543267492677</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y43" t="n">
         <v>751.2184584560904</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.34832290483</v>
+        <v>2416.705033755183</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.385805964418</v>
+        <v>2047.742516814771</v>
       </c>
       <c r="D44" t="n">
-        <v>1618.120107357668</v>
+        <v>1689.476818208021</v>
       </c>
       <c r="E44" t="n">
-        <v>1247.155298673469</v>
+        <v>1303.688565609776</v>
       </c>
       <c r="F44" t="n">
-        <v>836.1693938838614</v>
+        <v>892.7026608201688</v>
       </c>
       <c r="G44" t="n">
-        <v>419.918592385074</v>
+        <v>476.4518593213814</v>
       </c>
       <c r="H44" t="n">
-        <v>110.2672012943146</v>
+        <v>181.623912144667</v>
       </c>
       <c r="I44" t="n">
         <v>94.19862320290829</v>
@@ -7655,16 +7655,16 @@
         <v>1542.544568462677</v>
       </c>
       <c r="M44" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N44" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O44" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P44" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q44" t="n">
         <v>4658.401460222603</v>
@@ -7673,25 +7673,25 @@
         <v>4709.931160145415</v>
       </c>
       <c r="S44" t="n">
-        <v>4572.788810426035</v>
+        <v>4644.145521276388</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.652829802842</v>
+        <v>4433.009540653195</v>
       </c>
       <c r="U44" t="n">
-        <v>4108.028084969176</v>
+        <v>4250.741506669881</v>
       </c>
       <c r="V44" t="n">
-        <v>3776.965197625605</v>
+        <v>3919.678619326311</v>
       </c>
       <c r="W44" t="n">
-        <v>3424.196542355491</v>
+        <v>3566.909964056196</v>
       </c>
       <c r="X44" t="n">
-        <v>3122.087494944763</v>
+        <v>3193.444205795116</v>
       </c>
       <c r="Y44" t="n">
-        <v>2731.948162968952</v>
+        <v>2803.304873819305</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J45" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K45" t="n">
-        <v>654.6285586383409</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L45" t="n">
-        <v>887.1579362111883</v>
+        <v>550.7656274259955</v>
       </c>
       <c r="M45" t="n">
-        <v>1253.81561942418</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N45" t="n">
-        <v>1566.626115807875</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O45" t="n">
-        <v>1830.566812309317</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P45" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q45" t="n">
         <v>2625.087782060009</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.9267044762032</v>
+        <v>640.9267044762034</v>
       </c>
       <c r="C46" t="n">
-        <v>543.3472323986487</v>
+        <v>543.3472323986489</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5873038366652</v>
+        <v>464.5873038366655</v>
       </c>
       <c r="E46" t="n">
-        <v>388.0309211046244</v>
+        <v>388.0309211046247</v>
       </c>
       <c r="F46" t="n">
-        <v>312.4976844570664</v>
+        <v>312.4976844570667</v>
       </c>
       <c r="G46" t="n">
-        <v>215.6229908355101</v>
+        <v>215.6229908355104</v>
       </c>
       <c r="H46" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309766</v>
       </c>
       <c r="I46" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J46" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581557</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295427</v>
       </c>
       <c r="L46" t="n">
-        <v>695.8445609794705</v>
+        <v>695.8445609794709</v>
       </c>
       <c r="M46" t="n">
-        <v>1028.731729052992</v>
+        <v>1028.731729052993</v>
       </c>
       <c r="N46" t="n">
-        <v>1360.801139433345</v>
+        <v>1360.801139433346</v>
       </c>
       <c r="O46" t="n">
         <v>1656.843530303034</v>
       </c>
       <c r="P46" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q46" t="n">
         <v>2000.899469352691</v>
@@ -7831,7 +7831,7 @@
         <v>1958.659390511296</v>
       </c>
       <c r="S46" t="n">
-        <v>1829.118721170428</v>
+        <v>1829.118721170427</v>
       </c>
       <c r="T46" t="n">
         <v>1676.450390336533</v>
@@ -7846,10 +7846,10 @@
         <v>1057.287166796934</v>
       </c>
       <c r="X46" t="n">
-        <v>900.6543267492686</v>
+        <v>900.6543267492688</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2184584560906</v>
+        <v>751.2184584560908</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>226.2857655321397</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324504</v>
+        <v>361.0244890520115</v>
       </c>
       <c r="N3" t="n">
         <v>111.7499598249992</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>103.8419372411733</v>
+        <v>103.8419372411731</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>447.3888293192505</v>
+        <v>447.3888293192513</v>
       </c>
       <c r="N6" t="n">
-        <v>162.7869363053962</v>
+        <v>292.5885291189832</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>87.49623433939681</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.9123462488943</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>337.4859432630982</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.008356568916</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.89612811715143</v>
+        <v>38.89612811715141</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298221</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>89.80755617899165</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>306.5103856090096</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715141</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>42.0451485964316</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>231.1108349722178</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>42.04514859643155</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>42.0451485964316</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.89612811715142</v>
+        <v>38.89612811715143</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>70.09162912946334</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>42.0451485964316</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715143</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>76.71717082363284</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>42.0451485964316</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>38.89612811715143</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>70.09162912946334</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>42.0451485964316</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715143</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>76.71717082363296</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>42.0451485964316</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>38.89612811715143</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928332</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>50.76606145885324</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>70.09162912946357</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715143</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>70.09162912946357</v>
+        <v>50.76606145885313</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715143</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504512</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>50.76606145885324</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>76.71717082363296</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>38.89612811715143</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298318</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.76606145885324</v>
       </c>
       <c r="M45" t="n">
-        <v>76.71717082363296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>38.89612811715143</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>53.48084704575079</v>
       </c>
       <c r="C13" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>156.1516572966162</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6915092090627</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S13" t="n">
-        <v>188.4909732587351</v>
+        <v>188.4909732587352</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U13" t="n">
-        <v>275.8429477387573</v>
+        <v>275.8429477387574</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>103.8673216313522</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>156.8493879680544</v>
+        <v>156.8493879680545</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0365295159957</v>
+        <v>103.4951081363449</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0236148923578</v>
+        <v>135.0236148923579</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4909732587351</v>
+        <v>188.4909732587352</v>
       </c>
       <c r="T16" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.95524262507824</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>215.3122222584637</v>
+        <v>215.3122222584638</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>169.434547051364</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8493879680544</v>
+        <v>156.8493879680546</v>
       </c>
       <c r="D19" t="n">
-        <v>138.2180398876389</v>
+        <v>138.2180398876391</v>
       </c>
       <c r="E19" t="n">
-        <v>136.0365295159957</v>
+        <v>136.0365295159959</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>135.023614892358</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>156.1516572966163</v>
       </c>
       <c r="H19" t="n">
-        <v>139.0100359697638</v>
+        <v>132.6500428344274</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.6915092090629</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.0633886642566</v>
+        <v>102.0633886642568</v>
       </c>
       <c r="S19" t="n">
-        <v>3.972822369287826</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.1255652060176</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.1872202215214</v>
+        <v>208.1872202215215</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>148.9756479036456</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H22" t="n">
-        <v>139.0100359697639</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>101.6915092090628</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.0633886642567</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.4909732587352</v>
       </c>
       <c r="T22" t="n">
-        <v>211.3873581368308</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>264.5542633959747</v>
       </c>
       <c r="V22" t="n">
-        <v>241.7402101932547</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.1255652060177</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>215.3122222584638</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8493879680545</v>
+        <v>40.8808562300142</v>
       </c>
       <c r="D25" t="n">
-        <v>138.218039887639</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E25" t="n">
-        <v>136.0365295159959</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F25" t="n">
-        <v>135.0236148923579</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G25" t="n">
-        <v>156.1516572966163</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H25" t="n">
-        <v>139.0100359697639</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I25" t="n">
-        <v>101.6915092090628</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.0633886642567</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S25" t="n">
-        <v>163.0745539160274</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.1872202215215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>136.0365295159957</v>
       </c>
       <c r="F28" t="n">
-        <v>128.66362175702</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G28" t="n">
         <v>156.1516572966162</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.0633886642566</v>
+        <v>95.70339552891897</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.0745539160262</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C31" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>136.0365295159957</v>
@@ -24856,7 +24856,7 @@
         <v>139.0100359697638</v>
       </c>
       <c r="I31" t="n">
-        <v>101.6915092090627</v>
+        <v>46.61765120616475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
@@ -26320,40 +26320,40 @@
         <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
+        <v>294963.9102612343</v>
+      </c>
+      <c r="F2" t="n">
+        <v>294963.9102612344</v>
+      </c>
+      <c r="G2" t="n">
+        <v>294963.9102612343</v>
+      </c>
+      <c r="H2" t="n">
+        <v>294963.9102612348</v>
+      </c>
+      <c r="I2" t="n">
+        <v>294963.9102612348</v>
+      </c>
+      <c r="J2" t="n">
         <v>294963.9102612351</v>
       </c>
-      <c r="F2" t="n">
-        <v>294963.9102612352</v>
-      </c>
-      <c r="G2" t="n">
-        <v>294963.9102612352</v>
-      </c>
-      <c r="H2" t="n">
-        <v>294963.9102612343</v>
-      </c>
-      <c r="I2" t="n">
-        <v>294963.9102612344</v>
-      </c>
-      <c r="J2" t="n">
-        <v>294963.9102612347</v>
-      </c>
       <c r="K2" t="n">
-        <v>294963.910261235</v>
+        <v>294963.9102612349</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991057</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991057</v>
       </c>
       <c r="N2" t="n">
+        <v>307890.6636991056</v>
+      </c>
+      <c r="O2" t="n">
         <v>307890.6636991057</v>
       </c>
-      <c r="O2" t="n">
-        <v>307890.6636991059</v>
-      </c>
       <c r="P2" t="n">
-        <v>307890.6636991057</v>
+        <v>307890.6636991056</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>100476.7337101048</v>
+        <v>100476.7337101065</v>
       </c>
       <c r="D3" t="n">
-        <v>322070.2142555309</v>
+        <v>322070.2142555292</v>
       </c>
       <c r="E3" t="n">
-        <v>497476.0416545636</v>
+        <v>497476.0416545638</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>80572.64137559789</v>
+        <v>80572.64137559783</v>
       </c>
       <c r="K3" t="n">
-        <v>23361.17978521479</v>
+        <v>23361.17978521521</v>
       </c>
       <c r="L3" t="n">
-        <v>125986.9220456743</v>
+        <v>125986.9220456738</v>
       </c>
       <c r="M3" t="n">
-        <v>125398.3356886932</v>
+        <v>125398.3356886933</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8317.94650445884</v>
+        <v>8317.946504458694</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>254493.5842743095</v>
+        <v>254493.584274309</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>25768.29375740649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25768.29375740649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25768.29375740639</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25768.29375740653</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25768.29375740657</v>
+      </c>
+      <c r="J4" t="n">
         <v>25768.29375740656</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>25768.29375740655</v>
       </c>
-      <c r="G4" t="n">
-        <v>25768.29375740655</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25768.29375740646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25768.29375740649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25768.29375740652</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25768.29375740656</v>
-      </c>
       <c r="L4" t="n">
-        <v>45592.13492527045</v>
+        <v>45592.13492527041</v>
       </c>
       <c r="M4" t="n">
-        <v>45592.13492527042</v>
+        <v>45592.13492527044</v>
       </c>
       <c r="N4" t="n">
+        <v>45592.13492527037</v>
+      </c>
+      <c r="O4" t="n">
+        <v>45592.13492527044</v>
+      </c>
+      <c r="P4" t="n">
         <v>45592.13492527043</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45592.13492527042</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45592.13492527045</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58403.55628293913</v>
+        <v>58403.55628293926</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.1818109895</v>
       </c>
       <c r="F5" t="n">
         <v>89896.18181098948</v>
       </c>
       <c r="G5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="H5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="I5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="J5" t="n">
         <v>89896.18181098948</v>
@@ -26522,46 +26522,46 @@
         <v>-152940.4026578697</v>
       </c>
       <c r="C6" t="n">
-        <v>-105483.2105682473</v>
+        <v>-105483.2105682487</v>
       </c>
       <c r="D6" t="n">
-        <v>-253813.5868710567</v>
+        <v>-253813.586871055</v>
       </c>
       <c r="E6" t="n">
-        <v>-318176.6069617246</v>
+        <v>-318262.785317978</v>
       </c>
       <c r="F6" t="n">
-        <v>179299.4346928392</v>
+        <v>179213.256336586</v>
       </c>
       <c r="G6" t="n">
-        <v>179299.4346928392</v>
+        <v>179213.2563365862</v>
       </c>
       <c r="H6" t="n">
-        <v>179299.4346928384</v>
+        <v>179213.2563365862</v>
       </c>
       <c r="I6" t="n">
-        <v>179299.4346928384</v>
+        <v>179213.2563365863</v>
       </c>
       <c r="J6" t="n">
-        <v>98726.79331724084</v>
+        <v>98640.61496098879</v>
       </c>
       <c r="K6" t="n">
-        <v>155938.2549076242</v>
+        <v>155852.0765513711</v>
       </c>
       <c r="L6" t="n">
-        <v>41350.6282717922</v>
+        <v>41350.62827179267</v>
       </c>
       <c r="M6" t="n">
-        <v>41939.21462877342</v>
+        <v>41939.21462877316</v>
       </c>
       <c r="N6" t="n">
-        <v>167337.5503174665</v>
+        <v>167337.5503174664</v>
       </c>
       <c r="O6" t="n">
-        <v>159019.6038130079</v>
+        <v>159019.6038130078</v>
       </c>
       <c r="P6" t="n">
-        <v>167337.5503174665</v>
+        <v>167337.5503174663</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>10.39743313057336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.39743313057336</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.39743313057326</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.39743313057339</v>
+      </c>
+      <c r="I2" t="n">
         <v>10.39743313057342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.39743313057342</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.39743313057342</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.39743313057333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10.39743313057333</v>
       </c>
       <c r="J2" t="n">
         <v>10.39743313057343</v>
@@ -26713,19 +26713,19 @@
         <v>10.39743313057343</v>
       </c>
       <c r="L2" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M2" t="n">
         <v>70.64314374184879</v>
       </c>
       <c r="N2" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="O2" t="n">
+        <v>70.64314374184877</v>
+      </c>
+      <c r="P2" t="n">
         <v>70.64314374184882</v>
-      </c>
-      <c r="P2" t="n">
-        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1583064436328</v>
+        <v>113.1583064436342</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>799.5929527947246</v>
+        <v>799.5929527947249</v>
       </c>
       <c r="F3" t="n">
-        <v>799.5929527947246</v>
+        <v>799.5929527947249</v>
       </c>
       <c r="G3" t="n">
         <v>799.5929527947246</v>
       </c>
       <c r="H3" t="n">
-        <v>799.5929527947247</v>
+        <v>799.5929527947246</v>
       </c>
       <c r="I3" t="n">
         <v>799.5929527947246</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>366.926072409012</v>
+        <v>366.9260724090136</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.030286966852145e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.314504061156185e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057337</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.24571061127539</v>
+        <v>60.24571061127527</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057337</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>78.13704572450752</v>
+        <v>78.13704572450884</v>
       </c>
       <c r="D3" t="n">
-        <v>264.5853577734538</v>
+        <v>264.5853577734525</v>
       </c>
       <c r="E3" t="n">
-        <v>421.849288577638</v>
+        <v>421.8492885776382</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>90.76955870665658</v>
+        <v>90.76955870665822</v>
       </c>
       <c r="D4" t="n">
-        <v>307.3612003455436</v>
+        <v>307.361200345542</v>
       </c>
       <c r="E4" t="n">
-        <v>503.1955172817983</v>
+        <v>503.1955172817985</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665658</v>
+        <v>90.76955870665822</v>
       </c>
       <c r="L4" t="n">
-        <v>307.3612003455436</v>
+        <v>307.361200345542</v>
       </c>
       <c r="M4" t="n">
         <v>503.1955172817983</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.314504061156185e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057337</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665658</v>
+        <v>90.76955870665822</v>
       </c>
       <c r="L4" t="n">
-        <v>307.3612003455436</v>
+        <v>307.361200345542</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817983</v>
+        <v>503.1955172817985</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>377.7351317846826</v>
+        <v>384.6111775263941</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27436,7 +27436,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.7807045029822</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>130.7659497792224</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>74.11636115526376</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>91.93870002166213</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00429766324976</v>
+        <v>15.00429766324817</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>387.8290987665922</v>
       </c>
       <c r="G5" t="n">
-        <v>47.92175734152551</v>
+        <v>47.92175734152391</v>
       </c>
       <c r="H5" t="n">
         <v>334.8159779715828</v>
       </c>
       <c r="I5" t="n">
-        <v>192.93805797576</v>
+        <v>192.9380579757598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>121.2935180732508</v>
+        <v>121.2935180732505</v>
       </c>
       <c r="S5" t="n">
-        <v>198.6538589004794</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.1044908246057</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3092602866687</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>57.68246903157831</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.8847405498089</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>73.1416928323341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>167.1621765020568</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>11.26843259139287</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9253691130818</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>15.78017796161132</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7869233960194</v>
       </c>
       <c r="H7" t="n">
-        <v>111.8859933784702</v>
+        <v>160.4129294959334</v>
       </c>
       <c r="I7" t="n">
-        <v>149.3139556204462</v>
+        <v>149.3139556204461</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.93242357221142</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.07513897870582</v>
+        <v>69.07513897870562</v>
       </c>
       <c r="R7" t="n">
-        <v>168.1182932842153</v>
+        <v>168.1182932842152</v>
       </c>
       <c r="S7" t="n">
         <v>220.4604591279158</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.2099645886519</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>174.1423483450621</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>56.25950038248513</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="C11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="D11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="E11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="F11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="G11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="H11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="I11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="T11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="U11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="V11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="W11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="X11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="C13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="D13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="E13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="F13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="G13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="H13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="I13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="J13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="K13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="L13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="M13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="N13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="O13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="P13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="R13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="S13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="T13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="U13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="V13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="W13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="X13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="F14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="G14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="H14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="I14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="U14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="V14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="W14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="X14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="D16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="E16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="G16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="I16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="J16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="K16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="L16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="M16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="N16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="O16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="P16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="R16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="T16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="U16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="V16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="W16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="X16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057336</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="C17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="D17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="E17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="F17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="G17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="H17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="I17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="T17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="U17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="V17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="W17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="X17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="C19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="D19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="E19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="F19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="G19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="H19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="I19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="J19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="K19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="L19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="M19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="N19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="O19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="P19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="R19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="T19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="U19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="V19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="W19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="X19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057326</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="C20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="D20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="E20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="F20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="G20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="H20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="I20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="T20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="U20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="V20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="W20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="X20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="D22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="E22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="F22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="G22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="H22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="I22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="J22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="K22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="L22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="M22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="N22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="O22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="P22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="R22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="T22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="U22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="V22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="W22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="X22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057339</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.39743313057392</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057369</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="26">
@@ -29341,7 +29341,7 @@
         <v>10.39743313057343</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.39743313057272</v>
+        <v>10.39743313057343</v>
       </c>
     </row>
     <row r="27">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305733</v>
       </c>
       <c r="T29" t="n">
         <v>10.39743313057343</v>
@@ -29749,10 +29749,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>14.67520947490397</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>14.67520947490476</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="35">
@@ -29986,13 +29986,13 @@
         <v>70.64314374184879</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>14.67520947490465</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>14.67520947490499</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30220,13 +30220,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="C38" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>14.6752094749047</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>14.67520947490344</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="C40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="D40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="E40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="F40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="G40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="H40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="I40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="J40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="K40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="L40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="M40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="N40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="O40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="P40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="R40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="S40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="T40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="U40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="V40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="W40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="X40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
     </row>
     <row r="41">
@@ -30457,16 +30457,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>14.67520947490419</v>
+        <v>14.67520947490482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="C43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="E43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="F43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="G43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="H43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="I43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="J43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="K43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="L43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="M43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="N43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="O43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="P43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="R43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="S43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="T43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="U43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="V43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="W43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="X43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
     </row>
     <row r="44">
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>14.6752094749051</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30712,10 +30712,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.67520947490436</v>
       </c>
       <c r="I44" t="n">
-        <v>70.6431437418488</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>70.6431437418488</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4549077645975186</v>
+        <v>0.4549077645975239</v>
       </c>
       <c r="H5" t="n">
-        <v>4.658824144184338</v>
+        <v>4.658824144184393</v>
       </c>
       <c r="I5" t="n">
-        <v>17.53783159464585</v>
+        <v>17.53783159464606</v>
       </c>
       <c r="J5" t="n">
-        <v>38.60972788550868</v>
+        <v>38.60972788550913</v>
       </c>
       <c r="K5" t="n">
-        <v>57.86597356092165</v>
+        <v>57.86597356092233</v>
       </c>
       <c r="L5" t="n">
-        <v>71.78785706172297</v>
+        <v>71.78785706172381</v>
       </c>
       <c r="M5" t="n">
-        <v>79.8778230203841</v>
+        <v>79.87782302038502</v>
       </c>
       <c r="N5" t="n">
-        <v>81.17032970654681</v>
+        <v>81.17032970654775</v>
       </c>
       <c r="O5" t="n">
-        <v>76.64684062233022</v>
+        <v>76.64684062233111</v>
       </c>
       <c r="P5" t="n">
-        <v>65.41630518382897</v>
+        <v>65.41630518382973</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.12492086418032</v>
+        <v>49.12492086418089</v>
       </c>
       <c r="R5" t="n">
-        <v>28.5755998678989</v>
+        <v>28.57559986789924</v>
       </c>
       <c r="S5" t="n">
-        <v>10.36621068576597</v>
+        <v>10.36621068576609</v>
       </c>
       <c r="T5" t="n">
-        <v>1.991358739525639</v>
+        <v>1.991358739525662</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03639262116780148</v>
+        <v>0.0363926211678019</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.243397111973097</v>
+        <v>0.2433971119730999</v>
       </c>
       <c r="H6" t="n">
-        <v>2.350703686687543</v>
+        <v>2.350703686687571</v>
       </c>
       <c r="I6" t="n">
-        <v>8.380119863986017</v>
+        <v>8.380119863986115</v>
       </c>
       <c r="J6" t="n">
-        <v>22.99568942549335</v>
+        <v>22.99568942549362</v>
       </c>
       <c r="K6" t="n">
-        <v>39.30329592769085</v>
+        <v>39.30329592769132</v>
       </c>
       <c r="L6" t="n">
-        <v>52.84813170275513</v>
+        <v>52.84813170275575</v>
       </c>
       <c r="M6" t="n">
-        <v>61.67127701177989</v>
+        <v>61.67127701178061</v>
       </c>
       <c r="N6" t="n">
-        <v>63.30353220566966</v>
+        <v>63.3035322056704</v>
       </c>
       <c r="O6" t="n">
-        <v>57.9103646193184</v>
+        <v>57.91036461931908</v>
       </c>
       <c r="P6" t="n">
-        <v>46.4781730749329</v>
+        <v>46.47817307493344</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.06942783712727</v>
+        <v>31.06942783712763</v>
       </c>
       <c r="R6" t="n">
-        <v>15.11197156618931</v>
+        <v>15.11197156618949</v>
       </c>
       <c r="S6" t="n">
-        <v>4.520994601780989</v>
+        <v>4.520994601781041</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9810611662424391</v>
+        <v>0.9810611662424505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01601296789296692</v>
+        <v>0.01601296789296711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2040559624393379</v>
+        <v>0.2040559624393403</v>
       </c>
       <c r="H7" t="n">
-        <v>1.814243011506115</v>
+        <v>1.814243011506136</v>
       </c>
       <c r="I7" t="n">
-        <v>6.13651930681209</v>
+        <v>6.136519306812162</v>
       </c>
       <c r="J7" t="n">
-        <v>14.42675654446119</v>
+        <v>14.42675654446136</v>
       </c>
       <c r="K7" t="n">
-        <v>23.70759272704307</v>
+        <v>23.70759272704334</v>
       </c>
       <c r="L7" t="n">
-        <v>30.33755645211757</v>
+        <v>30.33755645211792</v>
       </c>
       <c r="M7" t="n">
-        <v>31.98669963946821</v>
+        <v>31.98669963946858</v>
       </c>
       <c r="N7" t="n">
-        <v>31.2261274158307</v>
+        <v>31.22612741583107</v>
       </c>
       <c r="O7" t="n">
-        <v>28.84238276369842</v>
+        <v>28.84238276369876</v>
       </c>
       <c r="P7" t="n">
-        <v>24.67964112993591</v>
+        <v>24.6796411299362</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.08690427298856</v>
+        <v>17.08690427298876</v>
       </c>
       <c r="R7" t="n">
-        <v>9.175098092954226</v>
+        <v>9.175098092954334</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55613890905646</v>
+        <v>3.556138909056501</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8718754758771707</v>
+        <v>0.8718754758771809</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0111303252239639</v>
+        <v>0.01113032522396403</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.214444031335574</v>
+        <v>3.214444031335575</v>
       </c>
       <c r="H11" t="n">
-        <v>32.91992493591545</v>
+        <v>32.91992493591547</v>
       </c>
       <c r="I11" t="n">
-        <v>123.9248535180648</v>
+        <v>123.9248535180649</v>
       </c>
       <c r="J11" t="n">
-        <v>272.8219191045679</v>
+        <v>272.821919104568</v>
       </c>
       <c r="K11" t="n">
-        <v>408.8893349510029</v>
+        <v>408.889334951003</v>
       </c>
       <c r="L11" t="n">
-        <v>507.263376474989</v>
+        <v>507.2633764749892</v>
       </c>
       <c r="M11" t="n">
-        <v>564.428245517253</v>
+        <v>564.4282455172531</v>
       </c>
       <c r="N11" t="n">
-        <v>573.5612846212853</v>
+        <v>573.5612846212854</v>
       </c>
       <c r="O11" t="n">
-        <v>541.5976567846922</v>
+        <v>541.5976567846923</v>
       </c>
       <c r="P11" t="n">
-        <v>462.241069761095</v>
+        <v>462.2410697610952</v>
       </c>
       <c r="Q11" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888898</v>
       </c>
       <c r="R11" t="n">
-        <v>201.9193198833834</v>
+        <v>201.9193198833835</v>
       </c>
       <c r="S11" t="n">
-        <v>73.24914336405946</v>
+        <v>73.24914336405949</v>
       </c>
       <c r="T11" t="n">
-        <v>14.07122874717148</v>
+        <v>14.07122874717149</v>
       </c>
       <c r="U11" t="n">
         <v>0.2571555225068459</v>
@@ -31832,31 +31832,31 @@
         <v>1.719879181482993</v>
       </c>
       <c r="H12" t="n">
-        <v>16.6104120948489</v>
+        <v>16.61041209484891</v>
       </c>
       <c r="I12" t="n">
-        <v>59.21513848526971</v>
+        <v>59.21513848526973</v>
       </c>
       <c r="J12" t="n">
-        <v>162.4908660014261</v>
+        <v>162.4908660014262</v>
       </c>
       <c r="K12" t="n">
-        <v>277.7227711607866</v>
+        <v>277.7227711607867</v>
       </c>
       <c r="L12" t="n">
-        <v>373.4325389443665</v>
+        <v>373.4325389443666</v>
       </c>
       <c r="M12" t="n">
-        <v>435.7781592731249</v>
+        <v>435.778159273125</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3119104507017</v>
+        <v>447.3119104507018</v>
       </c>
       <c r="O12" t="n">
-        <v>409.2030085873154</v>
+        <v>409.2030085873155</v>
       </c>
       <c r="P12" t="n">
-        <v>328.4214903658182</v>
+        <v>328.4214903658183</v>
       </c>
       <c r="Q12" t="n">
         <v>219.5410688503554</v>
@@ -31865,13 +31865,13 @@
         <v>106.7833758468125</v>
       </c>
       <c r="S12" t="n">
-        <v>31.94600146307223</v>
+        <v>31.94600146307224</v>
       </c>
       <c r="T12" t="n">
-        <v>6.932320034135393</v>
+        <v>6.932320034135395</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1131499461501969</v>
+        <v>0.113149946150197</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,25 +31908,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.441888931269175</v>
+        <v>1.441888931269176</v>
       </c>
       <c r="H13" t="n">
         <v>12.81970340710232</v>
       </c>
       <c r="I13" t="n">
-        <v>43.36153258762212</v>
+        <v>43.36153258762214</v>
       </c>
       <c r="J13" t="n">
         <v>101.9415474407307</v>
       </c>
       <c r="K13" t="n">
-        <v>167.5212776510914</v>
+        <v>167.5212776510915</v>
       </c>
       <c r="L13" t="n">
         <v>214.3695598361464</v>
       </c>
       <c r="M13" t="n">
-        <v>226.0226440170399</v>
+        <v>226.02264401704</v>
       </c>
       <c r="N13" t="n">
         <v>220.6483307277641</v>
@@ -31935,22 +31935,22 @@
         <v>203.8044463943014</v>
       </c>
       <c r="P13" t="n">
-        <v>174.38991219641</v>
+        <v>174.3899121964101</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.7385358720034</v>
+        <v>120.7385358720035</v>
       </c>
       <c r="R13" t="n">
-        <v>64.83256958233945</v>
+        <v>64.83256958233947</v>
       </c>
       <c r="S13" t="n">
-        <v>25.12819164766371</v>
+        <v>25.12819164766372</v>
       </c>
       <c r="T13" t="n">
-        <v>6.160798160877384</v>
+        <v>6.160798160877386</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07864848716013693</v>
+        <v>0.07864848716013695</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.214444031335574</v>
+        <v>3.214444031335575</v>
       </c>
       <c r="H14" t="n">
-        <v>32.91992493591545</v>
+        <v>32.91992493591547</v>
       </c>
       <c r="I14" t="n">
-        <v>123.9248535180648</v>
+        <v>123.9248535180649</v>
       </c>
       <c r="J14" t="n">
-        <v>272.8219191045679</v>
+        <v>272.821919104568</v>
       </c>
       <c r="K14" t="n">
-        <v>408.8893349510029</v>
+        <v>408.889334951003</v>
       </c>
       <c r="L14" t="n">
-        <v>507.263376474989</v>
+        <v>507.2633764749892</v>
       </c>
       <c r="M14" t="n">
-        <v>564.428245517253</v>
+        <v>564.4282455172531</v>
       </c>
       <c r="N14" t="n">
-        <v>573.5612846212853</v>
+        <v>573.5612846212854</v>
       </c>
       <c r="O14" t="n">
-        <v>541.5976567846922</v>
+        <v>541.5976567846923</v>
       </c>
       <c r="P14" t="n">
-        <v>462.241069761095</v>
+        <v>462.2410697610952</v>
       </c>
       <c r="Q14" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888898</v>
       </c>
       <c r="R14" t="n">
-        <v>201.9193198833834</v>
+        <v>201.9193198833835</v>
       </c>
       <c r="S14" t="n">
-        <v>73.24914336405946</v>
+        <v>73.24914336405949</v>
       </c>
       <c r="T14" t="n">
-        <v>14.07122874717148</v>
+        <v>14.07122874717149</v>
       </c>
       <c r="U14" t="n">
         <v>0.2571555225068459</v>
@@ -32069,31 +32069,31 @@
         <v>1.719879181482993</v>
       </c>
       <c r="H15" t="n">
-        <v>16.6104120948489</v>
+        <v>16.61041209484891</v>
       </c>
       <c r="I15" t="n">
-        <v>59.21513848526971</v>
+        <v>59.21513848526973</v>
       </c>
       <c r="J15" t="n">
-        <v>162.4908660014261</v>
+        <v>162.4908660014262</v>
       </c>
       <c r="K15" t="n">
-        <v>277.7227711607866</v>
+        <v>277.7227711607867</v>
       </c>
       <c r="L15" t="n">
-        <v>373.4325389443665</v>
+        <v>373.4325389443666</v>
       </c>
       <c r="M15" t="n">
-        <v>435.7781592731249</v>
+        <v>435.778159273125</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3119104507017</v>
+        <v>447.3119104507018</v>
       </c>
       <c r="O15" t="n">
-        <v>409.2030085873154</v>
+        <v>409.2030085873155</v>
       </c>
       <c r="P15" t="n">
-        <v>328.4214903658182</v>
+        <v>328.4214903658183</v>
       </c>
       <c r="Q15" t="n">
         <v>219.5410688503554</v>
@@ -32102,13 +32102,13 @@
         <v>106.7833758468125</v>
       </c>
       <c r="S15" t="n">
-        <v>31.94600146307223</v>
+        <v>31.94600146307224</v>
       </c>
       <c r="T15" t="n">
-        <v>6.932320034135393</v>
+        <v>6.932320034135395</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1131499461501969</v>
+        <v>0.113149946150197</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,25 +32145,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.441888931269175</v>
+        <v>1.441888931269176</v>
       </c>
       <c r="H16" t="n">
         <v>12.81970340710232</v>
       </c>
       <c r="I16" t="n">
-        <v>43.36153258762212</v>
+        <v>43.36153258762214</v>
       </c>
       <c r="J16" t="n">
         <v>101.9415474407307</v>
       </c>
       <c r="K16" t="n">
-        <v>167.5212776510914</v>
+        <v>167.5212776510915</v>
       </c>
       <c r="L16" t="n">
         <v>214.3695598361464</v>
       </c>
       <c r="M16" t="n">
-        <v>226.0226440170399</v>
+        <v>226.02264401704</v>
       </c>
       <c r="N16" t="n">
         <v>220.6483307277641</v>
@@ -32172,22 +32172,22 @@
         <v>203.8044463943014</v>
       </c>
       <c r="P16" t="n">
-        <v>174.38991219641</v>
+        <v>174.3899121964101</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.7385358720034</v>
+        <v>120.7385358720035</v>
       </c>
       <c r="R16" t="n">
-        <v>64.83256958233945</v>
+        <v>64.83256958233947</v>
       </c>
       <c r="S16" t="n">
-        <v>25.12819164766371</v>
+        <v>25.12819164766372</v>
       </c>
       <c r="T16" t="n">
-        <v>6.160798160877384</v>
+        <v>6.160798160877386</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07864848716013693</v>
+        <v>0.07864848716013695</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,10 +32464,10 @@
         <v>3.214444031335574</v>
       </c>
       <c r="H20" t="n">
-        <v>32.91992493591546</v>
+        <v>32.91992493591545</v>
       </c>
       <c r="I20" t="n">
-        <v>123.9248535180649</v>
+        <v>123.9248535180648</v>
       </c>
       <c r="J20" t="n">
         <v>272.8219191045679</v>
@@ -32476,28 +32476,28 @@
         <v>408.8893349510029</v>
       </c>
       <c r="L20" t="n">
-        <v>507.2633764749891</v>
+        <v>507.263376474989</v>
       </c>
       <c r="M20" t="n">
-        <v>564.4282455172531</v>
+        <v>564.428245517253</v>
       </c>
       <c r="N20" t="n">
-        <v>573.5612846212854</v>
+        <v>573.5612846212853</v>
       </c>
       <c r="O20" t="n">
         <v>541.5976567846922</v>
       </c>
       <c r="P20" t="n">
-        <v>462.2410697610951</v>
+        <v>462.241069761095</v>
       </c>
       <c r="Q20" t="n">
         <v>347.1237928888897</v>
       </c>
       <c r="R20" t="n">
-        <v>201.9193198833835</v>
+        <v>201.9193198833834</v>
       </c>
       <c r="S20" t="n">
-        <v>73.24914336405948</v>
+        <v>73.24914336405946</v>
       </c>
       <c r="T20" t="n">
         <v>14.07122874717148</v>
@@ -32543,10 +32543,10 @@
         <v>1.719879181482993</v>
       </c>
       <c r="H21" t="n">
-        <v>16.61041209484891</v>
+        <v>16.6104120948489</v>
       </c>
       <c r="I21" t="n">
-        <v>59.21513848526972</v>
+        <v>59.21513848526971</v>
       </c>
       <c r="J21" t="n">
         <v>162.4908660014261</v>
@@ -32561,7 +32561,7 @@
         <v>435.7781592731249</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3119104507018</v>
+        <v>447.3119104507017</v>
       </c>
       <c r="O21" t="n">
         <v>409.2030085873154</v>
@@ -32576,10 +32576,10 @@
         <v>106.7833758468125</v>
       </c>
       <c r="S21" t="n">
-        <v>31.94600146307224</v>
+        <v>31.94600146307223</v>
       </c>
       <c r="T21" t="n">
-        <v>6.932320034135394</v>
+        <v>6.932320034135393</v>
       </c>
       <c r="U21" t="n">
         <v>0.1131499461501969</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.441888931269176</v>
+        <v>1.441888931269175</v>
       </c>
       <c r="H22" t="n">
         <v>12.81970340710232</v>
       </c>
       <c r="I22" t="n">
-        <v>43.36153258762213</v>
+        <v>43.36153258762212</v>
       </c>
       <c r="J22" t="n">
         <v>101.9415474407307</v>
       </c>
       <c r="K22" t="n">
-        <v>167.5212776510915</v>
+        <v>167.5212776510914</v>
       </c>
       <c r="L22" t="n">
         <v>214.3695598361464</v>
@@ -32646,22 +32646,22 @@
         <v>203.8044463943014</v>
       </c>
       <c r="P22" t="n">
-        <v>174.3899121964101</v>
+        <v>174.38991219641</v>
       </c>
       <c r="Q22" t="n">
         <v>120.7385358720034</v>
       </c>
       <c r="R22" t="n">
-        <v>64.83256958233946</v>
+        <v>64.83256958233945</v>
       </c>
       <c r="S22" t="n">
-        <v>25.12819164766372</v>
+        <v>25.12819164766371</v>
       </c>
       <c r="T22" t="n">
-        <v>6.160798160877385</v>
+        <v>6.160798160877384</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07864848716013695</v>
+        <v>0.07864848716013693</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>100.6082676511395</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>237.9770422219165</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>26.66043853089617</v>
+        <v>26.66043853089661</v>
       </c>
       <c r="K5" t="n">
-        <v>161.9215350871058</v>
+        <v>161.9215350871065</v>
       </c>
       <c r="L5" t="n">
-        <v>253.6826566421862</v>
+        <v>253.682656642187</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0451232859439</v>
+        <v>299.0451232859448</v>
       </c>
       <c r="N5" t="n">
-        <v>289.10419052194</v>
+        <v>289.104190521941</v>
       </c>
       <c r="O5" t="n">
-        <v>227.3488104633888</v>
+        <v>227.3488104633897</v>
       </c>
       <c r="P5" t="n">
-        <v>155.9820176000421</v>
+        <v>155.9820176000428</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.13422164963551</v>
+        <v>39.13422164963609</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>165.9270939659104</v>
+        <v>165.9270939659109</v>
       </c>
       <c r="L6" t="n">
-        <v>285.1340972263401</v>
+        <v>285.1340972263407</v>
       </c>
       <c r="M6" t="n">
-        <v>366.926072409012</v>
+        <v>366.9260724090136</v>
       </c>
       <c r="N6" t="n">
-        <v>94.74875642773254</v>
+        <v>224.5503492413202</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1764394516035</v>
+        <v>309.1764394516042</v>
       </c>
       <c r="P6" t="n">
-        <v>230.9665343005398</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>101.1649414869552</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.438100901160215</v>
+        <v>1.438100901160492</v>
       </c>
       <c r="L7" t="n">
-        <v>57.92758171243371</v>
+        <v>57.92758171243406</v>
       </c>
       <c r="M7" t="n">
-        <v>71.5705766013088</v>
+        <v>71.57057660130917</v>
       </c>
       <c r="N7" t="n">
-        <v>75.3582997950593</v>
+        <v>75.35829979505965</v>
       </c>
       <c r="O7" t="n">
-        <v>53.4275106777381</v>
+        <v>53.42751067773844</v>
       </c>
       <c r="P7" t="n">
-        <v>21.9582003948294</v>
+        <v>21.95820039482969</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>260.8726297499554</v>
+        <v>260.8726297499555</v>
       </c>
       <c r="K11" t="n">
-        <v>512.9448964771871</v>
+        <v>512.9448964771872</v>
       </c>
       <c r="L11" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554524</v>
       </c>
       <c r="M11" t="n">
-        <v>783.5955457828128</v>
+        <v>783.5955457828129</v>
       </c>
       <c r="N11" t="n">
-        <v>781.4951454366785</v>
+        <v>781.4951454366786</v>
       </c>
       <c r="O11" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257509</v>
       </c>
       <c r="P11" t="n">
-        <v>552.8067821773082</v>
+        <v>552.8067821773083</v>
       </c>
       <c r="Q11" t="n">
-        <v>337.1330936743449</v>
+        <v>337.133093674345</v>
       </c>
       <c r="R11" t="n">
-        <v>52.05020194223374</v>
+        <v>52.0502019422338</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.65323933475941</v>
+        <v>35.65323933475946</v>
       </c>
       <c r="K12" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990063</v>
       </c>
       <c r="L12" t="n">
-        <v>234.8781591644923</v>
+        <v>234.8781591644924</v>
       </c>
       <c r="M12" t="n">
-        <v>293.6441253511065</v>
+        <v>293.6441253511067</v>
       </c>
       <c r="N12" t="n">
-        <v>795.3125727109219</v>
+        <v>653.4561416304667</v>
       </c>
       <c r="O12" t="n">
-        <v>266.6067641428709</v>
+        <v>660.4690834196006</v>
       </c>
       <c r="P12" t="n">
-        <v>512.9098515914251</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q12" t="n">
-        <v>277.5676513332499</v>
+        <v>79.55929476433391</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K13" t="n">
         <v>155.649218955782</v>
@@ -35574,19 +35574,19 @@
         <v>252.3570182270359</v>
       </c>
       <c r="M13" t="n">
-        <v>276.0039541094538</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N13" t="n">
         <v>275.1779362375661</v>
       </c>
       <c r="O13" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P13" t="n">
         <v>182.0659045918769</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.97392575088245</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>260.8726297499554</v>
+        <v>260.8726297499555</v>
       </c>
       <c r="K14" t="n">
-        <v>512.9448964771871</v>
+        <v>512.9448964771872</v>
       </c>
       <c r="L14" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554524</v>
       </c>
       <c r="M14" t="n">
-        <v>783.5955457828128</v>
+        <v>783.5955457828129</v>
       </c>
       <c r="N14" t="n">
-        <v>781.4951454366785</v>
+        <v>781.4951454366786</v>
       </c>
       <c r="O14" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257509</v>
       </c>
       <c r="P14" t="n">
-        <v>552.8067821773082</v>
+        <v>552.8067821773083</v>
       </c>
       <c r="Q14" t="n">
-        <v>337.1330936743449</v>
+        <v>337.133093674345</v>
       </c>
       <c r="R14" t="n">
-        <v>52.05020194223374</v>
+        <v>52.05020194223357</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>125.4607955137511</v>
+        <v>35.65323933475946</v>
       </c>
       <c r="K15" t="n">
-        <v>139.8813321864276</v>
+        <v>139.8813321864277</v>
       </c>
       <c r="L15" t="n">
-        <v>605.7185044679514</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M15" t="n">
-        <v>293.6441253511065</v>
+        <v>293.6441253511067</v>
       </c>
       <c r="N15" t="n">
-        <v>315.9701983673684</v>
+        <v>315.9701983673685</v>
       </c>
       <c r="O15" t="n">
-        <v>266.6067641428709</v>
+        <v>573.1171497518807</v>
       </c>
       <c r="P15" t="n">
-        <v>512.9098515914251</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q15" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433391</v>
       </c>
       <c r="R15" t="n">
-        <v>6.625541694169385</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K16" t="n">
         <v>155.649218955782</v>
@@ -35811,19 +35811,19 @@
         <v>252.3570182270359</v>
       </c>
       <c r="M16" t="n">
-        <v>276.0039541094538</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N16" t="n">
         <v>275.1779362375661</v>
       </c>
       <c r="O16" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P16" t="n">
         <v>182.0659045918769</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.97392575088245</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>35.65323933475941</v>
       </c>
       <c r="K18" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L18" t="n">
         <v>605.7185044679514</v>
       </c>
       <c r="M18" t="n">
-        <v>335.6892739475381</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N18" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O18" t="n">
-        <v>266.6067641428709</v>
+        <v>660.4690834196005</v>
       </c>
       <c r="P18" t="n">
-        <v>512.9098515914251</v>
+        <v>425.5579179237058</v>
       </c>
       <c r="Q18" t="n">
         <v>79.55929476433386</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463119</v>
       </c>
       <c r="K19" t="n">
-        <v>155.649218955782</v>
+        <v>155.6492189557818</v>
       </c>
       <c r="L19" t="n">
-        <v>252.3570182270359</v>
+        <v>252.3570182270358</v>
       </c>
       <c r="M19" t="n">
-        <v>276.0039541094538</v>
+        <v>276.0039541094537</v>
       </c>
       <c r="N19" t="n">
-        <v>275.1779362375661</v>
+        <v>275.177936237566</v>
       </c>
       <c r="O19" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389143</v>
       </c>
       <c r="P19" t="n">
-        <v>182.0659045918769</v>
+        <v>182.0659045918768</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.97392575088245</v>
+        <v>44.97392575088229</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>260.8726297499554</v>
+        <v>260.8726297499562</v>
       </c>
       <c r="K20" t="n">
         <v>512.9448964771871</v>
@@ -36127,10 +36127,10 @@
         <v>689.1581760554523</v>
       </c>
       <c r="M20" t="n">
-        <v>783.5955457828129</v>
+        <v>783.5955457828128</v>
       </c>
       <c r="N20" t="n">
-        <v>781.4951454366786</v>
+        <v>781.4951454366785</v>
       </c>
       <c r="O20" t="n">
         <v>692.2996266257508</v>
@@ -36142,7 +36142,7 @@
         <v>337.1330936743449</v>
       </c>
       <c r="R20" t="n">
-        <v>52.05020194223377</v>
+        <v>52.05020194223374</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>35.65323933475943</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K21" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L21" t="n">
-        <v>605.7185044679516</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M21" t="n">
-        <v>335.6892739475381</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N21" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O21" t="n">
-        <v>266.606764142871</v>
+        <v>308.6519127393025</v>
       </c>
       <c r="P21" t="n">
-        <v>512.9098515914252</v>
+        <v>512.9098515914251</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.55929476433388</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.97980045463127</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K22" t="n">
-        <v>155.6492189557819</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L22" t="n">
-        <v>252.3570182270358</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M22" t="n">
-        <v>276.0039541094539</v>
+        <v>276.0039541094538</v>
       </c>
       <c r="N22" t="n">
-        <v>275.177936237566</v>
+        <v>275.1779362375661</v>
       </c>
       <c r="O22" t="n">
         <v>238.7870074389144</v>
@@ -36297,7 +36297,7 @@
         <v>182.0659045918769</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.97392575088237</v>
+        <v>44.97392575088242</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K24" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L24" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M24" t="n">
-        <v>363.7357544805699</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N24" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O24" t="n">
-        <v>266.6067641428709</v>
+        <v>308.6519127393025</v>
       </c>
       <c r="P24" t="n">
         <v>512.9098515914251</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R24" t="n">
-        <v>6.625541694169385</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.97980045463125</v>
+        <v>18.97980045463135</v>
       </c>
       <c r="K25" t="n">
-        <v>155.6492189557819</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L25" t="n">
-        <v>252.3570182270358</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M25" t="n">
         <v>276.0039541094538</v>
       </c>
       <c r="N25" t="n">
-        <v>275.177936237566</v>
+        <v>275.1779362375661</v>
       </c>
       <c r="O25" t="n">
-        <v>238.7870074389143</v>
+        <v>238.7870074389145</v>
       </c>
       <c r="P25" t="n">
-        <v>182.0659045918768</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.97392575088235</v>
+        <v>44.97392575088244</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K27" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L27" t="n">
-        <v>311.5953299881251</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M27" t="n">
         <v>293.6441253511065</v>
@@ -36686,13 +36686,13 @@
         <v>315.9701983673684</v>
       </c>
       <c r="O27" t="n">
-        <v>266.6067641428709</v>
+        <v>308.6519127393025</v>
       </c>
       <c r="P27" t="n">
         <v>512.9098515914251</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K30" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L30" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M30" t="n">
-        <v>363.7357544805699</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N30" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O30" t="n">
-        <v>266.6067641428709</v>
+        <v>308.6519127393025</v>
       </c>
       <c r="P30" t="n">
         <v>512.9098515914251</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R30" t="n">
-        <v>6.625541694169385</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463136</v>
       </c>
       <c r="K31" t="n">
         <v>155.649218955782</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K33" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L33" t="n">
-        <v>311.5953299881252</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M33" t="n">
         <v>293.6441253511065</v>
@@ -37160,13 +37160,13 @@
         <v>315.9701983673684</v>
       </c>
       <c r="O33" t="n">
-        <v>266.6067641428709</v>
+        <v>308.6519127393025</v>
       </c>
       <c r="P33" t="n">
         <v>512.9098515914251</v>
       </c>
       <c r="Q33" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.22551106590674</v>
+        <v>79.22551106590673</v>
       </c>
       <c r="K34" t="n">
         <v>215.8949295670574</v>
@@ -37312,7 +37312,7 @@
         <v>689.1581760554523</v>
       </c>
       <c r="M35" t="n">
-        <v>783.5955457828135</v>
+        <v>783.5955457828128</v>
       </c>
       <c r="N35" t="n">
         <v>781.4951454366785</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K36" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L36" t="n">
-        <v>234.8781591644923</v>
+        <v>285.6442206233455</v>
       </c>
       <c r="M36" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N36" t="n">
-        <v>315.9701983673684</v>
+        <v>795.3125727109219</v>
       </c>
       <c r="O36" t="n">
-        <v>336.6983932723345</v>
+        <v>266.6067641428709</v>
       </c>
       <c r="P36" t="n">
-        <v>512.9098515914251</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q36" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R36" t="n">
-        <v>6.625541694169385</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K39" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L39" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M39" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N39" t="n">
-        <v>315.9701983673684</v>
+        <v>795.3125727109219</v>
       </c>
       <c r="O39" t="n">
-        <v>336.6983932723345</v>
+        <v>317.3728256017241</v>
       </c>
       <c r="P39" t="n">
-        <v>512.9098515914251</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q39" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R39" t="n">
-        <v>6.625541694169385</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.22551106590672</v>
+        <v>79.2255110659067</v>
       </c>
       <c r="K40" t="n">
-        <v>215.8949295670574</v>
+        <v>215.8949295670573</v>
       </c>
       <c r="L40" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383112</v>
       </c>
       <c r="M40" t="n">
         <v>336.2496647207292</v>
       </c>
       <c r="N40" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O40" t="n">
         <v>299.0327180501898</v>
@@ -37783,7 +37783,7 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L41" t="n">
-        <v>689.1581760554529</v>
+        <v>689.1581760554523</v>
       </c>
       <c r="M41" t="n">
         <v>783.5955457828128</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K42" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L42" t="n">
-        <v>234.8781591644923</v>
+        <v>285.6442206233455</v>
       </c>
       <c r="M42" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6873691910014</v>
+        <v>795.3125727109219</v>
       </c>
       <c r="O42" t="n">
         <v>266.6067641428709</v>
       </c>
       <c r="P42" t="n">
-        <v>512.9098515914251</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q42" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.22551106590674</v>
+        <v>79.2255110659067</v>
       </c>
       <c r="K43" t="n">
-        <v>215.8949295670574</v>
+        <v>215.8949295670573</v>
       </c>
       <c r="L43" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383112</v>
       </c>
       <c r="M43" t="n">
         <v>336.2496647207292</v>
@@ -38038,7 +38038,7 @@
         <v>337.1330936743449</v>
       </c>
       <c r="R44" t="n">
-        <v>52.05020194223374</v>
+        <v>52.05020194223449</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475941</v>
       </c>
       <c r="K45" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L45" t="n">
-        <v>234.8781591644923</v>
+        <v>285.6442206233455</v>
       </c>
       <c r="M45" t="n">
-        <v>370.3612961747395</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N45" t="n">
-        <v>315.9701983673684</v>
+        <v>795.3125727109219</v>
       </c>
       <c r="O45" t="n">
         <v>266.6067641428709</v>
       </c>
       <c r="P45" t="n">
-        <v>512.9098515914251</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q45" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433386</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.22551106590673</v>
+        <v>79.22551106590674</v>
       </c>
       <c r="K46" t="n">
         <v>215.8949295670574</v>
